--- a/data/scheduling_DNN/predict/0.5/result15.xlsx
+++ b/data/scheduling_DNN/predict/0.5/result15.xlsx
@@ -570,10 +570,10 @@
         <v>0.9342160224914551</v>
       </c>
       <c r="V2" t="n">
-        <v>0.7828408479690552</v>
+        <v>0.5083565711975098</v>
       </c>
       <c r="W2" t="n">
-        <v>0.02291444316506386</v>
+        <v>0.1813562661409378</v>
       </c>
     </row>
     <row r="3" spans="1:23">
@@ -641,10 +641,10 @@
         <v>1.023137807846069</v>
       </c>
       <c r="V3" t="n">
-        <v>0.3808989822864532</v>
+        <v>0.5197486877441406</v>
       </c>
       <c r="W3" t="n">
-        <v>0.4124707579612732</v>
+        <v>0.253400593996048</v>
       </c>
     </row>
     <row r="4" spans="1:23">
@@ -712,10 +712,10 @@
         <v>0.9011509418487549</v>
       </c>
       <c r="V4" t="n">
-        <v>0.3507681787014008</v>
+        <v>0.4994480609893799</v>
       </c>
       <c r="W4" t="n">
-        <v>0.3029211461544037</v>
+        <v>0.1613652110099792</v>
       </c>
     </row>
     <row r="5" spans="1:23">
@@ -783,10 +783,10 @@
         <v>0.898996114730835</v>
       </c>
       <c r="V5" t="n">
-        <v>0.6568711996078491</v>
+        <v>0.5158425569534302</v>
       </c>
       <c r="W5" t="n">
-        <v>0.05862447619438171</v>
+        <v>0.1468066424131393</v>
       </c>
     </row>
     <row r="6" spans="1:23">
@@ -854,10 +854,10 @@
         <v>0.878993034362793</v>
       </c>
       <c r="V6" t="n">
-        <v>0.6972826719284058</v>
+        <v>0.4119343161582947</v>
       </c>
       <c r="W6" t="n">
-        <v>0.03301865607500076</v>
+        <v>0.2181438505649567</v>
       </c>
     </row>
     <row r="7" spans="1:23">
@@ -925,10 +925,10 @@
         <v>1.031430959701538</v>
       </c>
       <c r="V7" t="n">
-        <v>0.5316058397293091</v>
+        <v>0.4958074986934662</v>
       </c>
       <c r="W7" t="n">
-        <v>0.2498251497745514</v>
+        <v>0.2868924736976624</v>
       </c>
     </row>
     <row r="8" spans="1:23">
@@ -996,10 +996,10 @@
         <v>0.8685171604156494</v>
       </c>
       <c r="V8" t="n">
-        <v>0.8101098537445068</v>
+        <v>0.4045976102352142</v>
       </c>
       <c r="W8" t="n">
-        <v>0.003411413403227925</v>
+        <v>0.2152213454246521</v>
       </c>
     </row>
     <row r="9" spans="1:23">
@@ -1067,10 +1067,10 @@
         <v>0.8606882095336914</v>
       </c>
       <c r="V9" t="n">
-        <v>0.5346115231513977</v>
+        <v>0.5172379612922668</v>
       </c>
       <c r="W9" t="n">
-        <v>0.1063260063529015</v>
+        <v>0.1179580762982368</v>
       </c>
     </row>
     <row r="10" spans="1:23">
@@ -1138,10 +1138,10 @@
         <v>0.8683362007141113</v>
       </c>
       <c r="V10" t="n">
-        <v>0.3507703840732574</v>
+        <v>0.4120010733604431</v>
       </c>
       <c r="W10" t="n">
-        <v>0.2678744196891785</v>
+        <v>0.2082417458295822</v>
       </c>
     </row>
     <row r="11" spans="1:23">
@@ -1209,10 +1209,10 @@
         <v>0.9071619510650635</v>
       </c>
       <c r="V11" t="n">
-        <v>0.8103859424591064</v>
+        <v>0.4983167350292206</v>
       </c>
       <c r="W11" t="n">
-        <v>0.009365595877170563</v>
+        <v>0.1671544164419174</v>
       </c>
     </row>
     <row r="12" spans="1:23">
@@ -1280,10 +1280,10 @@
         <v>0.8600330352783203</v>
       </c>
       <c r="V12" t="n">
-        <v>0.6547068357467651</v>
+        <v>0.4096567630767822</v>
       </c>
       <c r="W12" t="n">
-        <v>0.04215884953737259</v>
+        <v>0.2028387933969498</v>
       </c>
     </row>
     <row r="13" spans="1:23">
@@ -1351,10 +1351,10 @@
         <v>0.8671779632568359</v>
       </c>
       <c r="V13" t="n">
-        <v>0.5031870007514954</v>
+        <v>0.4051413536071777</v>
       </c>
       <c r="W13" t="n">
-        <v>0.1324894279241562</v>
+        <v>0.213477835059166</v>
       </c>
     </row>
     <row r="14" spans="1:23">
@@ -1422,10 +1422,10 @@
         <v>1.047449827194214</v>
       </c>
       <c r="V14" t="n">
-        <v>0.5760998725891113</v>
+        <v>0.3972994089126587</v>
       </c>
       <c r="W14" t="n">
-        <v>0.2221707850694656</v>
+        <v>0.4226955771446228</v>
       </c>
     </row>
     <row r="15" spans="1:23">
@@ -1493,10 +1493,10 @@
         <v>1.682579040527344</v>
       </c>
       <c r="V15" t="n">
-        <v>0.672019362449646</v>
+        <v>0.8693443536758423</v>
       </c>
       <c r="W15" t="n">
-        <v>1.021230816841125</v>
+        <v>0.6613506674766541</v>
       </c>
     </row>
     <row r="16" spans="1:23">
@@ -1564,10 +1564,10 @@
         <v>1.150499820709229</v>
       </c>
       <c r="V16" t="n">
-        <v>0.4032191634178162</v>
+        <v>0.4034021496772766</v>
       </c>
       <c r="W16" t="n">
-        <v>0.5584284067153931</v>
+        <v>0.5581549406051636</v>
       </c>
     </row>
     <row r="17" spans="1:23">
@@ -1635,10 +1635,10 @@
         <v>1.07387113571167</v>
       </c>
       <c r="V17" t="n">
-        <v>0.5057560205459595</v>
+        <v>0.4920189678668976</v>
       </c>
       <c r="W17" t="n">
-        <v>0.3227547705173492</v>
+        <v>0.3385519683361053</v>
       </c>
     </row>
     <row r="18" spans="1:23">
@@ -1706,10 +1706,10 @@
         <v>0.8718039989471436</v>
       </c>
       <c r="V18" t="n">
-        <v>0.7827135324478149</v>
+        <v>0.5073210000991821</v>
       </c>
       <c r="W18" t="n">
-        <v>0.007937110960483551</v>
+        <v>0.132847860455513</v>
       </c>
     </row>
     <row r="19" spans="1:23">
@@ -1777,10 +1777,10 @@
         <v>0.8642990589141846</v>
       </c>
       <c r="V19" t="n">
-        <v>0.3810511529445648</v>
+        <v>0.8700137138366699</v>
       </c>
       <c r="W19" t="n">
-        <v>0.2335285395383835</v>
+        <v>3.265728082624264e-05</v>
       </c>
     </row>
     <row r="20" spans="1:23">
@@ -1848,10 +1848,10 @@
         <v>0.8686230182647705</v>
       </c>
       <c r="V20" t="n">
-        <v>0.4036741256713867</v>
+        <v>0.5157448053359985</v>
       </c>
       <c r="W20" t="n">
-        <v>0.2161774784326553</v>
+        <v>0.1245230361819267</v>
       </c>
     </row>
     <row r="21" spans="1:23">
@@ -1919,10 +1919,10 @@
         <v>0.9269611835479736</v>
       </c>
       <c r="V21" t="n">
-        <v>0.5279320478439331</v>
+        <v>0.4232863783836365</v>
       </c>
       <c r="W21" t="n">
-        <v>0.1592242568731308</v>
+        <v>0.2536883056163788</v>
       </c>
     </row>
     <row r="22" spans="1:23">
@@ -1990,10 +1990,10 @@
         <v>0.5190451145172119</v>
       </c>
       <c r="V22" t="n">
-        <v>0.3507842719554901</v>
+        <v>0.8717749714851379</v>
       </c>
       <c r="W22" t="n">
-        <v>0.02831171080470085</v>
+        <v>0.1244183555245399</v>
       </c>
     </row>
     <row r="23" spans="1:23">
@@ -2061,10 +2061,10 @@
         <v>0.5284709930419922</v>
       </c>
       <c r="V23" t="n">
-        <v>0.4036012589931488</v>
+        <v>0.4977231621742249</v>
       </c>
       <c r="W23" t="n">
-        <v>0.01559245027601719</v>
+        <v>0.0009454290848225355</v>
       </c>
     </row>
     <row r="24" spans="1:23">
@@ -2132,10 +2132,10 @@
         <v>0.5294950008392334</v>
       </c>
       <c r="V24" t="n">
-        <v>0.8160734176635742</v>
+        <v>0.421430915594101</v>
       </c>
       <c r="W24" t="n">
-        <v>0.08212719112634659</v>
+        <v>0.01167784631252289</v>
       </c>
     </row>
     <row r="25" spans="1:23">
@@ -2203,10 +2203,10 @@
         <v>0.5208120346069336</v>
       </c>
       <c r="V25" t="n">
-        <v>0.4036816954612732</v>
+        <v>0.8737877011299133</v>
       </c>
       <c r="W25" t="n">
-        <v>0.01371951680630445</v>
+        <v>0.1245918199419975</v>
       </c>
     </row>
     <row r="26" spans="1:23">
@@ -2274,10 +2274,10 @@
         <v>0.5446240901947021</v>
       </c>
       <c r="V26" t="n">
-        <v>0.944080114364624</v>
+        <v>0.4890246391296387</v>
       </c>
       <c r="W26" t="n">
-        <v>0.1595651209354401</v>
+        <v>0.003091298975050449</v>
       </c>
     </row>
     <row r="27" spans="1:23">
@@ -2345,10 +2345,10 @@
         <v>0.5196478366851807</v>
       </c>
       <c r="V27" t="n">
-        <v>0.5043676495552063</v>
+        <v>0.5084059834480286</v>
       </c>
       <c r="W27" t="n">
-        <v>0.0002334841119591147</v>
+        <v>0.0001263792655663565</v>
       </c>
     </row>
     <row r="28" spans="1:23">
@@ -2416,10 +2416,10 @@
         <v>0.515826940536499</v>
       </c>
       <c r="V28" t="n">
-        <v>0.4036073684692383</v>
+        <v>0.4051456451416016</v>
       </c>
       <c r="W28" t="n">
-        <v>0.01259323209524155</v>
+        <v>0.01225034892559052</v>
       </c>
     </row>
     <row r="29" spans="1:23">
@@ -2487,10 +2487,10 @@
         <v>0.5127511024475098</v>
       </c>
       <c r="V29" t="n">
-        <v>0.3750417828559875</v>
+        <v>0.8800595998764038</v>
       </c>
       <c r="W29" t="n">
-        <v>0.01896385662257671</v>
+        <v>0.1349155306816101</v>
       </c>
     </row>
     <row r="30" spans="1:23">
@@ -2558,10 +2558,10 @@
         <v>0.5245919227600098</v>
       </c>
       <c r="V30" t="n">
-        <v>0.9478923082351685</v>
+        <v>0.4959518909454346</v>
       </c>
       <c r="W30" t="n">
-        <v>0.1791832149028778</v>
+        <v>0.000820251414552331</v>
       </c>
     </row>
     <row r="31" spans="1:23">
@@ -2629,10 +2629,10 @@
         <v>0.5077509880065918</v>
       </c>
       <c r="V31" t="n">
-        <v>0.4484338760375977</v>
+        <v>0.8786575794219971</v>
       </c>
       <c r="W31" t="n">
-        <v>0.003518519690260291</v>
+        <v>0.1375716924667358</v>
       </c>
     </row>
     <row r="32" spans="1:23">
@@ -2700,10 +2700,10 @@
         <v>0.5565359592437744</v>
       </c>
       <c r="V32" t="n">
-        <v>0.9462730884552002</v>
+        <v>0.4022572934627533</v>
       </c>
       <c r="W32" t="n">
-        <v>0.1518950313329697</v>
+        <v>0.0238019060343504</v>
       </c>
     </row>
     <row r="33" spans="1:23">
@@ -2771,10 +2771,10 @@
         <v>0.51717209815979</v>
       </c>
       <c r="V33" t="n">
-        <v>0.9462680816650391</v>
+        <v>0.8629129528999329</v>
       </c>
       <c r="W33" t="n">
-        <v>0.1841233670711517</v>
+        <v>0.1195367351174355</v>
       </c>
     </row>
     <row r="34" spans="1:23">
@@ -2842,10 +2842,10 @@
         <v>0.5249598026275635</v>
       </c>
       <c r="V34" t="n">
-        <v>0.4776301085948944</v>
+        <v>0.8932707905769348</v>
       </c>
       <c r="W34" t="n">
-        <v>0.00224009994417429</v>
+        <v>0.1356529891490936</v>
       </c>
     </row>
     <row r="35" spans="1:23">
@@ -2913,10 +2913,10 @@
         <v>0.5187931060791016</v>
       </c>
       <c r="V35" t="n">
-        <v>0.4036547243595123</v>
+        <v>0.4952008724212646</v>
       </c>
       <c r="W35" t="n">
-        <v>0.01325684692710638</v>
+        <v>0.0005565934698097408</v>
       </c>
     </row>
     <row r="36" spans="1:23">
@@ -2984,10 +2984,10 @@
         <v>0.5074529647827148</v>
       </c>
       <c r="V36" t="n">
-        <v>0.8070424795150757</v>
+        <v>0.5186833143234253</v>
       </c>
       <c r="W36" t="n">
-        <v>0.08975387364625931</v>
+        <v>0.0001261207507923245</v>
       </c>
     </row>
     <row r="37" spans="1:23">
@@ -3055,10 +3055,10 @@
         <v>0.5697779655456543</v>
       </c>
       <c r="V37" t="n">
-        <v>0.5030796527862549</v>
+        <v>0.5158755779266357</v>
       </c>
       <c r="W37" t="n">
-        <v>0.004448664840310812</v>
+        <v>0.002905467292293906</v>
       </c>
     </row>
     <row r="38" spans="1:23">
@@ -3126,10 +3126,10 @@
         <v>0.5191810131072998</v>
       </c>
       <c r="V38" t="n">
-        <v>0.6971142292022705</v>
+        <v>0.9003147482872009</v>
       </c>
       <c r="W38" t="n">
-        <v>0.03166022896766663</v>
+        <v>0.1452629268169403</v>
       </c>
     </row>
     <row r="39" spans="1:23">
@@ -3197,10 +3197,10 @@
         <v>0.5196759700775146</v>
       </c>
       <c r="V39" t="n">
-        <v>0.3800938129425049</v>
+        <v>0.3972641229629517</v>
       </c>
       <c r="W39" t="n">
-        <v>0.01948317885398865</v>
+        <v>0.01498465985059738</v>
       </c>
     </row>
     <row r="40" spans="1:23">
@@ -3268,10 +3268,10 @@
         <v>0.5162498950958252</v>
       </c>
       <c r="V40" t="n">
-        <v>0.5609912872314453</v>
+        <v>0.4111723899841309</v>
       </c>
       <c r="W40" t="n">
-        <v>0.002001792192459106</v>
+        <v>0.01104128174483776</v>
       </c>
     </row>
     <row r="41" spans="1:23">
@@ -3339,10 +3339,10 @@
         <v>0.5356690883636475</v>
       </c>
       <c r="V41" t="n">
-        <v>0.5137795209884644</v>
+        <v>0.3992308676242828</v>
       </c>
       <c r="W41" t="n">
-        <v>0.0004791531537193805</v>
+        <v>0.01861538738012314</v>
       </c>
     </row>
     <row r="42" spans="1:23">
@@ -3410,10 +3410,10 @@
         <v>0.398123025894165</v>
       </c>
       <c r="V42" t="n">
-        <v>0.5049394369125366</v>
+        <v>0.4034175276756287</v>
       </c>
       <c r="W42" t="n">
-        <v>0.01140974555164576</v>
+        <v>2.803174902510364e-05</v>
       </c>
     </row>
     <row r="43" spans="1:23">
@@ -3481,10 +3481,10 @@
         <v>0.4129400253295898</v>
       </c>
       <c r="V43" t="n">
-        <v>0.8001948595046997</v>
+        <v>0.4936430156230927</v>
       </c>
       <c r="W43" t="n">
-        <v>0.149966299533844</v>
+        <v>0.00651297252625227</v>
       </c>
     </row>
     <row r="44" spans="1:23">
@@ -3552,10 +3552,10 @@
         <v>0.391711950302124</v>
       </c>
       <c r="V44" t="n">
-        <v>0.9424417018890381</v>
+        <v>0.4224011898040771</v>
       </c>
       <c r="W44" t="n">
-        <v>0.3033032715320587</v>
+        <v>0.0009418294066563249</v>
       </c>
     </row>
     <row r="45" spans="1:23">
@@ -3623,10 +3623,10 @@
         <v>0.388361930847168</v>
       </c>
       <c r="V45" t="n">
-        <v>0.4037072956562042</v>
+        <v>0.4990019798278809</v>
       </c>
       <c r="W45" t="n">
-        <v>0.0002354802272748202</v>
+        <v>0.01224122010171413</v>
       </c>
     </row>
     <row r="46" spans="1:23">
@@ -3694,10 +3694,10 @@
         <v>0.3913898468017578</v>
       </c>
       <c r="V46" t="n">
-        <v>0.5322068929672241</v>
+        <v>0.4988206028938293</v>
       </c>
       <c r="W46" t="n">
-        <v>0.01982944086194038</v>
+        <v>0.01154136750847101</v>
       </c>
     </row>
     <row r="47" spans="1:23">
@@ -3765,10 +3765,10 @@
         <v>0.409207820892334</v>
       </c>
       <c r="V47" t="n">
-        <v>0.3507833182811737</v>
+        <v>0.3972967863082886</v>
       </c>
       <c r="W47" t="n">
-        <v>0.003413422498852015</v>
+        <v>0.0001418727479176596</v>
       </c>
     </row>
     <row r="48" spans="1:23">
@@ -3836,10 +3836,10 @@
         <v>0.3926000595092773</v>
       </c>
       <c r="V48" t="n">
-        <v>0.3755414187908173</v>
+        <v>0.5158549547195435</v>
       </c>
       <c r="W48" t="n">
-        <v>0.0002909972099587321</v>
+        <v>0.01519176922738552</v>
       </c>
     </row>
     <row r="49" spans="1:23">
@@ -3907,10 +3907,10 @@
         <v>0.4409110546112061</v>
       </c>
       <c r="V49" t="n">
-        <v>0.6548136472702026</v>
+        <v>0.8818569183349609</v>
       </c>
       <c r="W49" t="n">
-        <v>0.0457543209195137</v>
+        <v>0.194433256983757</v>
       </c>
     </row>
     <row r="50" spans="1:23">
@@ -3978,10 +3978,10 @@
         <v>0.3870019912719727</v>
       </c>
       <c r="V50" t="n">
-        <v>0.514564037322998</v>
+        <v>0.5009033679962158</v>
       </c>
       <c r="W50" t="n">
-        <v>0.01627207547426224</v>
+        <v>0.01297352369874716</v>
       </c>
     </row>
     <row r="51" spans="1:23">
@@ -4049,10 +4049,10 @@
         <v>0.3897349834442139</v>
       </c>
       <c r="V51" t="n">
-        <v>0.4506650269031525</v>
+        <v>0.3993144929409027</v>
       </c>
       <c r="W51" t="n">
-        <v>0.003712470177561045</v>
+        <v>9.176700405078009e-05</v>
       </c>
     </row>
     <row r="52" spans="1:23">
@@ -4120,10 +4120,10 @@
         <v>0.398123025894165</v>
       </c>
       <c r="V52" t="n">
-        <v>0.4505521655082703</v>
+        <v>0.3972731232643127</v>
       </c>
       <c r="W52" t="n">
-        <v>0.002748814644291997</v>
+        <v>7.223345050988428e-07</v>
       </c>
     </row>
     <row r="53" spans="1:23">
@@ -4191,10 +4191,10 @@
         <v>0.3910880088806152</v>
       </c>
       <c r="V53" t="n">
-        <v>0.5373629331588745</v>
+        <v>0.3972850441932678</v>
       </c>
       <c r="W53" t="n">
-        <v>0.02139635384082794</v>
+        <v>3.840324643533677e-05</v>
       </c>
     </row>
     <row r="54" spans="1:23">
@@ -4262,10 +4262,10 @@
         <v>0.3889739513397217</v>
       </c>
       <c r="V54" t="n">
-        <v>0.8052781820297241</v>
+        <v>0.4991885721683502</v>
       </c>
       <c r="W54" t="n">
-        <v>0.1733092069625854</v>
+        <v>0.01214726269245148</v>
       </c>
     </row>
     <row r="55" spans="1:23">
@@ -4333,10 +4333,10 @@
         <v>0.4863450527191162</v>
       </c>
       <c r="V55" t="n">
-        <v>0.5279086828231812</v>
+        <v>0.8803785443305969</v>
       </c>
       <c r="W55" t="n">
-        <v>0.001727535389363766</v>
+        <v>0.1552623957395554</v>
       </c>
     </row>
     <row r="56" spans="1:23">
@@ -4404,10 +4404,10 @@
         <v>0.4102480411529541</v>
       </c>
       <c r="V56" t="n">
-        <v>0.6418135166168213</v>
+        <v>0.4049761593341827</v>
       </c>
       <c r="W56" t="n">
-        <v>0.05362256988883018</v>
+        <v>2.779273745545652e-05</v>
       </c>
     </row>
     <row r="57" spans="1:23">
@@ -4475,10 +4475,10 @@
         <v>0.4915928840637207</v>
       </c>
       <c r="V57" t="n">
-        <v>0.6425178050994873</v>
+        <v>0.5013381242752075</v>
       </c>
       <c r="W57" t="n">
-        <v>0.02277833223342896</v>
+        <v>9.496970596956089e-05</v>
       </c>
     </row>
     <row r="58" spans="1:23">
@@ -4546,10 +4546,10 @@
         <v>0.4040510654449463</v>
       </c>
       <c r="V58" t="n">
-        <v>0.3761706054210663</v>
+        <v>0.5157788395881653</v>
       </c>
       <c r="W58" t="n">
-        <v>0.0007773200632072985</v>
+        <v>0.01248309575021267</v>
       </c>
     </row>
     <row r="59" spans="1:23">
@@ -4617,10 +4617,10 @@
         <v>0.4029800891876221</v>
       </c>
       <c r="V59" t="n">
-        <v>0.5768920183181763</v>
+        <v>0.3973000645637512</v>
       </c>
       <c r="W59" t="n">
-        <v>0.03024535998702049</v>
+        <v>3.226268017897382e-05</v>
       </c>
     </row>
     <row r="60" spans="1:23">
@@ -4688,10 +4688,10 @@
         <v>0.3911981582641602</v>
       </c>
       <c r="V60" t="n">
-        <v>0.534324586391449</v>
+        <v>0.3972697854042053</v>
       </c>
       <c r="W60" t="n">
-        <v>0.02048517391085625</v>
+        <v>3.686465788632631e-05</v>
       </c>
     </row>
     <row r="61" spans="1:23">
@@ -4759,10 +4759,10 @@
         <v>0.4356679916381836</v>
       </c>
       <c r="V61" t="n">
-        <v>0.381181538105011</v>
+        <v>0.4945378601551056</v>
       </c>
       <c r="W61" t="n">
-        <v>0.00296877371147275</v>
+        <v>0.003465661313384771</v>
       </c>
     </row>
     <row r="62" spans="1:23">
@@ -4830,10 +4830,10 @@
         <v>0.891855001449585</v>
       </c>
       <c r="V62" t="n">
-        <v>0.3504441678524017</v>
+        <v>0.412301629781723</v>
       </c>
       <c r="W62" t="n">
-        <v>0.2931256592273712</v>
+        <v>0.2299714386463165</v>
       </c>
     </row>
     <row r="63" spans="1:23">
@@ -4901,10 +4901,10 @@
         <v>0.8526670932769775</v>
       </c>
       <c r="V63" t="n">
-        <v>0.5154380798339844</v>
+        <v>0.8643244504928589</v>
       </c>
       <c r="W63" t="n">
-        <v>0.1137234047055244</v>
+        <v>0.0001358939771307632</v>
       </c>
     </row>
     <row r="64" spans="1:23">
@@ -4972,10 +4972,10 @@
         <v>0.8711769580841064</v>
       </c>
       <c r="V64" t="n">
-        <v>0.6720672845840454</v>
+        <v>0.3977066278457642</v>
       </c>
       <c r="W64" t="n">
-        <v>0.03964466229081154</v>
+        <v>0.2241741567850113</v>
       </c>
     </row>
     <row r="65" spans="1:23">
@@ -5043,10 +5043,10 @@
         <v>0.9165539741516113</v>
       </c>
       <c r="V65" t="n">
-        <v>0.6525709629058838</v>
+        <v>0.49587681889534</v>
       </c>
       <c r="W65" t="n">
-        <v>0.06968703120946884</v>
+        <v>0.1769692748785019</v>
       </c>
     </row>
     <row r="66" spans="1:23">
@@ -5114,10 +5114,10 @@
         <v>0.8673610687255859</v>
       </c>
       <c r="V66" t="n">
-        <v>0.5413792133331299</v>
+        <v>0.8928987979888916</v>
       </c>
       <c r="W66" t="n">
-        <v>0.106264166533947</v>
+        <v>0.0006521756295114756</v>
       </c>
     </row>
     <row r="67" spans="1:23">
@@ -5185,10 +5185,10 @@
         <v>0.8583920001983643</v>
       </c>
       <c r="V67" t="n">
-        <v>0.7829492092132568</v>
+        <v>0.8694300651550293</v>
       </c>
       <c r="W67" t="n">
-        <v>0.005691614933311939</v>
+        <v>0.0001218388788402081</v>
       </c>
     </row>
     <row r="68" spans="1:23">
@@ -5256,10 +5256,10 @@
         <v>0.8842980861663818</v>
       </c>
       <c r="V68" t="n">
-        <v>0.5371879935264587</v>
+        <v>0.4965856671333313</v>
       </c>
       <c r="W68" t="n">
-        <v>0.1204854175448418</v>
+        <v>0.1503209173679352</v>
       </c>
     </row>
     <row r="69" spans="1:23">
@@ -5327,10 +5327,10 @@
         <v>0.9189949035644531</v>
       </c>
       <c r="V69" t="n">
-        <v>0.6825853586196899</v>
+        <v>0.5157938003540039</v>
       </c>
       <c r="W69" t="n">
-        <v>0.05588947236537933</v>
+        <v>0.162571132183075</v>
       </c>
     </row>
     <row r="70" spans="1:23">
@@ -5398,10 +5398,10 @@
         <v>0.8635451793670654</v>
       </c>
       <c r="V70" t="n">
-        <v>0.8205782175064087</v>
+        <v>0.4994975328445435</v>
       </c>
       <c r="W70" t="n">
-        <v>0.001846159808337688</v>
+        <v>0.132530689239502</v>
       </c>
     </row>
     <row r="71" spans="1:23">
@@ -5469,10 +5469,10 @@
         <v>0.9085090160369873</v>
       </c>
       <c r="V71" t="n">
-        <v>0.5370340347290039</v>
+        <v>0.5003273487091064</v>
       </c>
       <c r="W71" t="n">
-        <v>0.1379936635494232</v>
+        <v>0.1666122674942017</v>
       </c>
     </row>
     <row r="72" spans="1:23">
@@ -5540,10 +5540,10 @@
         <v>0.8609588146209717</v>
       </c>
       <c r="V72" t="n">
-        <v>0.531548023223877</v>
+        <v>0.508502185344696</v>
       </c>
       <c r="W72" t="n">
-        <v>0.1085114702582359</v>
+        <v>0.1242256760597229</v>
       </c>
     </row>
     <row r="73" spans="1:23">
@@ -5611,10 +5611,10 @@
         <v>0.936100959777832</v>
       </c>
       <c r="V73" t="n">
-        <v>0.6825827360153198</v>
+        <v>0.8708852529525757</v>
       </c>
       <c r="W73" t="n">
-        <v>0.06427148729562759</v>
+        <v>0.004253088496625423</v>
       </c>
     </row>
     <row r="74" spans="1:23">
@@ -5682,10 +5682,10 @@
         <v>0.8700659275054932</v>
       </c>
       <c r="V74" t="n">
-        <v>0.7835088968276978</v>
+        <v>0.4960631430149078</v>
       </c>
       <c r="W74" t="n">
-        <v>0.007492119446396828</v>
+        <v>0.1398780792951584</v>
       </c>
     </row>
     <row r="75" spans="1:23">
@@ -5753,10 +5753,10 @@
         <v>0.8739500045776367</v>
       </c>
       <c r="V75" t="n">
-        <v>0.9425735473632812</v>
+        <v>0.8732948899269104</v>
       </c>
       <c r="W75" t="n">
-        <v>0.004709190689027309</v>
+        <v>4.291752020435524e-07</v>
       </c>
     </row>
     <row r="76" spans="1:23">
@@ -5824,10 +5824,10 @@
         <v>0.8743538856506348</v>
       </c>
       <c r="V76" t="n">
-        <v>0.4036473333835602</v>
+        <v>0.8685511946678162</v>
       </c>
       <c r="W76" t="n">
-        <v>0.2215646654367447</v>
+        <v>3.367122189956717e-05</v>
       </c>
     </row>
     <row r="77" spans="1:23">
@@ -5895,10 +5895,10 @@
         <v>0.9369819164276123</v>
       </c>
       <c r="V77" t="n">
-        <v>0.8100709915161133</v>
+        <v>0.3993180096149445</v>
       </c>
       <c r="W77" t="n">
-        <v>0.01610638201236725</v>
+        <v>0.2890824973583221</v>
       </c>
     </row>
     <row r="78" spans="1:23">
@@ -5966,10 +5966,10 @@
         <v>0.8635709285736084</v>
       </c>
       <c r="V78" t="n">
-        <v>0.4777990877628326</v>
+        <v>0.492399662733078</v>
       </c>
       <c r="W78" t="n">
-        <v>0.1488199084997177</v>
+        <v>0.1377681046724319</v>
       </c>
     </row>
     <row r="79" spans="1:23">
@@ -6037,10 +6037,10 @@
         <v>0.9176139831542969</v>
       </c>
       <c r="V79" t="n">
-        <v>0.5374541282653809</v>
+        <v>0.8742803931236267</v>
       </c>
       <c r="W79" t="n">
-        <v>0.1445215195417404</v>
+        <v>0.001877799979411066</v>
       </c>
     </row>
     <row r="80" spans="1:23">
@@ -6108,10 +6108,10 @@
         <v>0.8652858734130859</v>
       </c>
       <c r="V80" t="n">
-        <v>0.3811658322811127</v>
+        <v>0.4049497842788696</v>
       </c>
       <c r="W80" t="n">
-        <v>0.2343722134828568</v>
+        <v>0.2119093090295792</v>
       </c>
     </row>
     <row r="81" spans="1:23">
@@ -6179,10 +6179,10 @@
         <v>0.9316627979278564</v>
       </c>
       <c r="V81" t="n">
-        <v>0.5138845443725586</v>
+        <v>0.8717948794364929</v>
       </c>
       <c r="W81" t="n">
-        <v>0.1745386719703674</v>
+        <v>0.003584167687222362</v>
       </c>
     </row>
     <row r="82" spans="1:23">
@@ -6250,10 +6250,10 @@
         <v>0.5331919193267822</v>
       </c>
       <c r="V82" t="n">
-        <v>0.4998745322227478</v>
+        <v>0.8795062899589539</v>
       </c>
       <c r="W82" t="n">
-        <v>0.001110048266127706</v>
+        <v>0.1199336424469948</v>
       </c>
     </row>
     <row r="83" spans="1:23">
@@ -6321,10 +6321,10 @@
         <v>0.5334839820861816</v>
       </c>
       <c r="V83" t="n">
-        <v>0.5144341588020325</v>
+        <v>0.896174430847168</v>
       </c>
       <c r="W83" t="n">
-        <v>0.0003628957783803344</v>
+        <v>0.13154436647892</v>
       </c>
     </row>
     <row r="84" spans="1:23">
@@ -6392,10 +6392,10 @@
         <v>0.5205249786376953</v>
       </c>
       <c r="V84" t="n">
-        <v>0.3808321058750153</v>
+        <v>0.5158044099807739</v>
       </c>
       <c r="W84" t="n">
-        <v>0.01951409876346588</v>
+        <v>2.228376797575038e-05</v>
       </c>
     </row>
     <row r="85" spans="1:23">
@@ -6463,10 +6463,10 @@
         <v>0.5108470916748047</v>
       </c>
       <c r="V85" t="n">
-        <v>0.4036197066307068</v>
+        <v>0.5025067329406738</v>
       </c>
       <c r="W85" t="n">
-        <v>0.01149771176278591</v>
+        <v>6.956158176762983e-05</v>
       </c>
     </row>
     <row r="86" spans="1:23">
@@ -6534,10 +6534,10 @@
         <v>0.5733439922332764</v>
       </c>
       <c r="V86" t="n">
-        <v>0.4662931859493256</v>
+        <v>0.8908146023750305</v>
       </c>
       <c r="W86" t="n">
-        <v>0.01145987492054701</v>
+        <v>0.1007875874638557</v>
       </c>
     </row>
     <row r="87" spans="1:23">
@@ -6605,10 +6605,10 @@
         <v>0.5197551250457764</v>
       </c>
       <c r="V87" t="n">
-        <v>0.3507773280143738</v>
+        <v>0.4234638214111328</v>
       </c>
       <c r="W87" t="n">
-        <v>0.02855349518358707</v>
+        <v>0.00927201472222805</v>
       </c>
     </row>
     <row r="88" spans="1:23">
@@ -6676,10 +6676,10 @@
         <v>0.5198359489440918</v>
       </c>
       <c r="V88" t="n">
-        <v>0.8098763227462769</v>
+        <v>0.3992181420326233</v>
       </c>
       <c r="W88" t="n">
-        <v>0.08412341773509979</v>
+        <v>0.0145486555993557</v>
       </c>
     </row>
     <row r="89" spans="1:23">
@@ -6747,10 +6747,10 @@
         <v>0.5150039196014404</v>
       </c>
       <c r="V89" t="n">
-        <v>0.350296825170517</v>
+        <v>0.515655517578125</v>
       </c>
       <c r="W89" t="n">
-        <v>0.02712842635810375</v>
+        <v>4.245799232194258e-07</v>
       </c>
     </row>
     <row r="90" spans="1:23">
@@ -6818,10 +6818,10 @@
         <v>0.5433290004730225</v>
       </c>
       <c r="V90" t="n">
-        <v>0.375304102897644</v>
+        <v>0.4966511726379395</v>
       </c>
       <c r="W90" t="n">
-        <v>0.02823236584663391</v>
+        <v>0.002178819617256522</v>
       </c>
     </row>
     <row r="91" spans="1:23">
@@ -6889,10 +6889,10 @@
         <v>0.5196390151977539</v>
       </c>
       <c r="V91" t="n">
-        <v>0.8000744581222534</v>
+        <v>0.8739960193634033</v>
       </c>
       <c r="W91" t="n">
-        <v>0.0786440372467041</v>
+        <v>0.1255688816308975</v>
       </c>
     </row>
     <row r="92" spans="1:23">
@@ -6960,10 +6960,10 @@
         <v>0.5240328311920166</v>
       </c>
       <c r="V92" t="n">
-        <v>0.656647801399231</v>
+        <v>0.8692172169685364</v>
       </c>
       <c r="W92" t="n">
-        <v>0.01758673042058945</v>
+        <v>0.1191522628068924</v>
       </c>
     </row>
     <row r="93" spans="1:23">
@@ -7031,10 +7031,10 @@
         <v>0.5175600051879883</v>
       </c>
       <c r="V93" t="n">
-        <v>0.7820807695388794</v>
+        <v>0.8625062108039856</v>
       </c>
       <c r="W93" t="n">
-        <v>0.0699712336063385</v>
+        <v>0.1189878880977631</v>
       </c>
     </row>
     <row r="94" spans="1:23">
@@ -7102,10 +7102,10 @@
         <v>0.5143780708312988</v>
       </c>
       <c r="V94" t="n">
-        <v>0.3524288833141327</v>
+        <v>0.8690424561500549</v>
       </c>
       <c r="W94" t="n">
-        <v>0.02622753940522671</v>
+        <v>0.1257868260145187</v>
       </c>
     </row>
     <row r="95" spans="1:23">
@@ -7173,10 +7173,10 @@
         <v>0.5149929523468018</v>
       </c>
       <c r="V95" t="n">
-        <v>0.5017967224121094</v>
+        <v>0.8635307550430298</v>
       </c>
       <c r="W95" t="n">
-        <v>0.0001741404848871753</v>
+        <v>0.1214786022901535</v>
       </c>
     </row>
     <row r="96" spans="1:23">
@@ -7244,10 +7244,10 @@
         <v>0.5215640068054199</v>
       </c>
       <c r="V96" t="n">
-        <v>0.5324540138244629</v>
+        <v>0.399348258972168</v>
       </c>
       <c r="W96" t="n">
-        <v>0.0001185922519653104</v>
+        <v>0.01493668928742409</v>
       </c>
     </row>
     <row r="97" spans="1:23">
@@ -7315,10 +7315,10 @@
         <v>0.5747840404510498</v>
       </c>
       <c r="V97" t="n">
-        <v>0.6533832550048828</v>
+        <v>0.4919523000717163</v>
       </c>
       <c r="W97" t="n">
-        <v>0.006177836563438177</v>
+        <v>0.006861097179353237</v>
       </c>
     </row>
     <row r="98" spans="1:23">
@@ -7386,10 +7386,10 @@
         <v>0.5212631225585938</v>
       </c>
       <c r="V98" t="n">
-        <v>0.654965877532959</v>
+        <v>0.4429048895835876</v>
       </c>
       <c r="W98" t="n">
-        <v>0.01787642575800419</v>
+        <v>0.006140012759715319</v>
       </c>
     </row>
     <row r="99" spans="1:23">
@@ -7457,10 +7457,10 @@
         <v>0.5213749408721924</v>
       </c>
       <c r="V99" t="n">
-        <v>0.6528067588806152</v>
+        <v>0.8721802830696106</v>
       </c>
       <c r="W99" t="n">
-        <v>0.01727432198822498</v>
+        <v>0.1230643913149834</v>
       </c>
     </row>
     <row r="100" spans="1:23">
@@ -7528,10 +7528,10 @@
         <v>0.5110199451446533</v>
       </c>
       <c r="V100" t="n">
-        <v>0.6540950536727905</v>
+        <v>0.3972547054290771</v>
       </c>
       <c r="W100" t="n">
-        <v>0.02047048695385456</v>
+        <v>0.01294253021478653</v>
       </c>
     </row>
     <row r="101" spans="1:23">
@@ -7599,10 +7599,10 @@
         <v>0.5170350074768066</v>
       </c>
       <c r="V101" t="n">
-        <v>0.5042273998260498</v>
+        <v>0.397313117980957</v>
       </c>
       <c r="W101" t="n">
-        <v>0.0001640348200453445</v>
+        <v>0.01433333102613688</v>
       </c>
     </row>
     <row r="102" spans="1:23">
@@ -7670,10 +7670,10 @@
         <v>0.4043970108032227</v>
       </c>
       <c r="V102" t="n">
-        <v>0.6081980466842651</v>
+        <v>0.3972808718681335</v>
       </c>
       <c r="W102" t="n">
-        <v>0.04153486341238022</v>
+        <v>5.063943171990104e-05</v>
       </c>
     </row>
     <row r="103" spans="1:23">
@@ -7741,10 +7741,10 @@
         <v>0.4082710742950439</v>
       </c>
       <c r="V103" t="n">
-        <v>0.6420689821243286</v>
+        <v>0.5158449411392212</v>
       </c>
       <c r="W103" t="n">
-        <v>0.05466146022081375</v>
+        <v>0.01157213654369116</v>
       </c>
     </row>
     <row r="104" spans="1:23">
@@ -7812,10 +7812,10 @@
         <v>0.4041609764099121</v>
       </c>
       <c r="V104" t="n">
-        <v>0.4033632874488831</v>
+        <v>0.8664332628250122</v>
       </c>
       <c r="W104" t="n">
-        <v>6.363076749948959e-07</v>
+        <v>0.2136956602334976</v>
       </c>
     </row>
     <row r="105" spans="1:23">
@@ -7883,10 +7883,10 @@
         <v>0.4179270267486572</v>
       </c>
       <c r="V105" t="n">
-        <v>0.3874495327472687</v>
+        <v>0.4174998700618744</v>
       </c>
       <c r="W105" t="n">
-        <v>0.0009288776200264692</v>
+        <v>1.824628412805396e-07</v>
       </c>
     </row>
     <row r="106" spans="1:23">
@@ -7954,10 +7954,10 @@
         <v>0.3927009105682373</v>
       </c>
       <c r="V106" t="n">
-        <v>0.5885483026504517</v>
+        <v>0.8694139122962952</v>
       </c>
       <c r="W106" t="n">
-        <v>0.03835619986057281</v>
+        <v>0.2272552847862244</v>
       </c>
     </row>
     <row r="107" spans="1:23">
@@ -8025,10 +8025,10 @@
         <v>0.3849389553070068</v>
       </c>
       <c r="V107" t="n">
-        <v>0.6413520574569702</v>
+        <v>0.508870005607605</v>
       </c>
       <c r="W107" t="n">
-        <v>0.06574767827987671</v>
+        <v>0.01535890530794859</v>
       </c>
     </row>
     <row r="108" spans="1:23">
@@ -8096,10 +8096,10 @@
         <v>0.3877031803131104</v>
       </c>
       <c r="V108" t="n">
-        <v>0.6825381517410278</v>
+        <v>0.8700562715530396</v>
       </c>
       <c r="W108" t="n">
-        <v>0.08692765980958939</v>
+        <v>0.2326645106077194</v>
       </c>
     </row>
     <row r="109" spans="1:23">
@@ -8167,10 +8167,10 @@
         <v>0.3920080661773682</v>
       </c>
       <c r="V109" t="n">
-        <v>0.6981637477874756</v>
+        <v>0.410050630569458</v>
       </c>
       <c r="W109" t="n">
-        <v>0.09373129904270172</v>
+        <v>0.0003255341434851289</v>
       </c>
     </row>
     <row r="110" spans="1:23">
@@ -8238,10 +8238,10 @@
         <v>0.3860921859741211</v>
       </c>
       <c r="V110" t="n">
-        <v>0.6904754638671875</v>
+        <v>0.3972864151000977</v>
       </c>
       <c r="W110" t="n">
-        <v>0.0926491767168045</v>
+        <v>0.0001253107620868832</v>
       </c>
     </row>
     <row r="111" spans="1:23">
@@ -8309,10 +8309,10 @@
         <v>0.3943908214569092</v>
       </c>
       <c r="V111" t="n">
-        <v>0.5136516690254211</v>
+        <v>0.3977153897285461</v>
       </c>
       <c r="W111" t="n">
-        <v>0.01422314997762442</v>
+        <v>1.105275441659614e-05</v>
       </c>
     </row>
     <row r="112" spans="1:23">
@@ -8380,10 +8380,10 @@
         <v>0.4013011455535889</v>
       </c>
       <c r="V112" t="n">
-        <v>0.8073692321777344</v>
+        <v>0.8661751747131348</v>
       </c>
       <c r="W112" t="n">
-        <v>0.1648912876844406</v>
+        <v>0.2161078602075577</v>
       </c>
     </row>
     <row r="113" spans="1:23">
@@ -8451,10 +8451,10 @@
         <v>0.3926570415496826</v>
       </c>
       <c r="V113" t="n">
-        <v>0.6420724391937256</v>
+        <v>0.4219698309898376</v>
       </c>
       <c r="W113" t="n">
-        <v>0.06220804154872894</v>
+        <v>0.0008592396043241024</v>
       </c>
     </row>
     <row r="114" spans="1:23">
@@ -8522,10 +8522,10 @@
         <v>0.3947079181671143</v>
       </c>
       <c r="V114" t="n">
-        <v>0.5139063596725464</v>
+        <v>0.8930317163467407</v>
       </c>
       <c r="W114" t="n">
-        <v>0.01420826837420464</v>
+        <v>0.2483266144990921</v>
       </c>
     </row>
     <row r="115" spans="1:23">
@@ -8593,10 +8593,10 @@
         <v>0.4087910652160645</v>
       </c>
       <c r="V115" t="n">
-        <v>0.8079757690429688</v>
+        <v>0.5176659822463989</v>
       </c>
       <c r="W115" t="n">
-        <v>0.1593484282493591</v>
+        <v>0.01185374800115824</v>
       </c>
     </row>
     <row r="116" spans="1:23">
@@ -8664,10 +8664,10 @@
         <v>0.3934228420257568</v>
       </c>
       <c r="V116" t="n">
-        <v>0.5005732774734497</v>
+        <v>0.4100663065910339</v>
       </c>
       <c r="W116" t="n">
-        <v>0.01148121617734432</v>
+        <v>0.0002770049031823874</v>
       </c>
     </row>
     <row r="117" spans="1:23">
@@ -8735,10 +8735,10 @@
         <v>0.3939089775085449</v>
       </c>
       <c r="V117" t="n">
-        <v>0.5747835636138916</v>
+        <v>0.8867735266685486</v>
       </c>
       <c r="W117" t="n">
-        <v>0.03271561488509178</v>
+        <v>0.242915466427803</v>
       </c>
     </row>
     <row r="118" spans="1:23">
@@ -8806,10 +8806,10 @@
         <v>0.4036209583282471</v>
       </c>
       <c r="V118" t="n">
-        <v>0.6983728408813477</v>
+        <v>0.8757899403572083</v>
       </c>
       <c r="W118" t="n">
-        <v>0.08687867224216461</v>
+        <v>0.2229435443878174</v>
       </c>
     </row>
     <row r="119" spans="1:23">
@@ -8877,10 +8877,10 @@
         <v>0.3935999870300293</v>
       </c>
       <c r="V119" t="n">
-        <v>0.4035879671573639</v>
+        <v>0.8626804351806641</v>
       </c>
       <c r="W119" t="n">
-        <v>9.975974535336718e-05</v>
+        <v>0.2200364619493484</v>
       </c>
     </row>
     <row r="120" spans="1:23">
@@ -8948,10 +8948,10 @@
         <v>0.3945310115814209</v>
       </c>
       <c r="V120" t="n">
-        <v>0.6825956106185913</v>
+        <v>0.8995776772499084</v>
       </c>
       <c r="W120" t="n">
-        <v>0.08298121392726898</v>
+        <v>0.255072146654129</v>
       </c>
     </row>
     <row r="121" spans="1:23">
@@ -9019,10 +9019,10 @@
         <v>0.4476549625396729</v>
       </c>
       <c r="V121" t="n">
-        <v>0.5153118371963501</v>
+        <v>0.8642491698265076</v>
       </c>
       <c r="W121" t="n">
-        <v>0.004577452782541513</v>
+        <v>0.1735507398843765</v>
       </c>
     </row>
     <row r="122" spans="1:23">
@@ -9090,10 +9090,10 @@
         <v>0.8787319660186768</v>
       </c>
       <c r="V122" t="n">
-        <v>0.5277000665664673</v>
+        <v>0.8695858716964722</v>
       </c>
       <c r="W122" t="n">
-        <v>0.1232233941555023</v>
+        <v>8.36510444059968e-05</v>
       </c>
     </row>
     <row r="123" spans="1:23">
@@ -9161,10 +9161,10 @@
         <v>0.9190449714660645</v>
       </c>
       <c r="V123" t="n">
-        <v>0.6548312902450562</v>
+        <v>0.4952930510044098</v>
       </c>
       <c r="W123" t="n">
-        <v>0.06980887055397034</v>
+        <v>0.1795656830072403</v>
       </c>
     </row>
     <row r="124" spans="1:23">
@@ -9232,10 +9232,10 @@
         <v>0.8951570987701416</v>
       </c>
       <c r="V124" t="n">
-        <v>0.6617556810379028</v>
+        <v>0.4953274130821228</v>
       </c>
       <c r="W124" t="n">
-        <v>0.05447622016072273</v>
+        <v>0.1598637849092484</v>
       </c>
     </row>
     <row r="125" spans="1:23">
@@ -9303,10 +9303,10 @@
         <v>0.9362971782684326</v>
       </c>
       <c r="V125" t="n">
-        <v>0.5373688936233521</v>
+        <v>0.4865364134311676</v>
       </c>
       <c r="W125" t="n">
-        <v>0.1591437757015228</v>
+        <v>0.2022847384214401</v>
       </c>
     </row>
     <row r="126" spans="1:23">
@@ -9374,10 +9374,10 @@
         <v>0.8745379447937012</v>
       </c>
       <c r="V126" t="n">
-        <v>0.946087121963501</v>
+        <v>0.4960658550262451</v>
       </c>
       <c r="W126" t="n">
-        <v>0.005119284614920616</v>
+        <v>0.1432411223649979</v>
       </c>
     </row>
     <row r="127" spans="1:23">
@@ -9445,10 +9445,10 @@
         <v>0.8713929653167725</v>
       </c>
       <c r="V127" t="n">
-        <v>0.514431357383728</v>
+        <v>0.8744347095489502</v>
       </c>
       <c r="W127" t="n">
-        <v>0.1274215877056122</v>
+        <v>9.252207746612839e-06</v>
       </c>
     </row>
     <row r="128" spans="1:23">
@@ -9516,10 +9516,10 @@
         <v>0.8622910976409912</v>
       </c>
       <c r="V128" t="n">
-        <v>0.5619301795959473</v>
+        <v>0.8946613073348999</v>
       </c>
       <c r="W128" t="n">
-        <v>0.09021668136119843</v>
+        <v>0.001047830446623266</v>
       </c>
     </row>
     <row r="129" spans="1:23">
@@ -9587,10 +9587,10 @@
         <v>0.9231250286102295</v>
       </c>
       <c r="V129" t="n">
-        <v>0.5413862466812134</v>
+        <v>0.5171544551849365</v>
       </c>
       <c r="W129" t="n">
-        <v>0.1457244902849197</v>
+        <v>0.1648121029138565</v>
       </c>
     </row>
     <row r="130" spans="1:23">
@@ -9658,10 +9658,10 @@
         <v>0.8806638717651367</v>
       </c>
       <c r="V130" t="n">
-        <v>0.4034280776977539</v>
+        <v>0.3993805646896362</v>
       </c>
       <c r="W130" t="n">
-        <v>0.2277539968490601</v>
+        <v>0.2316336184740067</v>
       </c>
     </row>
     <row r="131" spans="1:23">
@@ -9729,10 +9729,10 @@
         <v>0.8681390285491943</v>
       </c>
       <c r="V131" t="n">
-        <v>0.6564396619796753</v>
+        <v>0.3992907404899597</v>
       </c>
       <c r="W131" t="n">
-        <v>0.04481662064790726</v>
+        <v>0.2198187112808228</v>
       </c>
     </row>
     <row r="132" spans="1:23">
@@ -9800,10 +9800,10 @@
         <v>0.8684329986572266</v>
       </c>
       <c r="V132" t="n">
-        <v>0.5141499042510986</v>
+        <v>0.8742504715919495</v>
       </c>
       <c r="W132" t="n">
-        <v>0.1255165040493011</v>
+        <v>3.384299270692281e-05</v>
       </c>
     </row>
     <row r="133" spans="1:23">
@@ -9871,10 +9871,10 @@
         <v>0.9257500171661377</v>
       </c>
       <c r="V133" t="n">
-        <v>0.5887774229049683</v>
+        <v>0.8632820248603821</v>
       </c>
       <c r="W133" t="n">
-        <v>0.113550528883934</v>
+        <v>0.003902249969542027</v>
       </c>
     </row>
     <row r="134" spans="1:23">
@@ -9942,10 +9942,10 @@
         <v>0.8819799423217773</v>
       </c>
       <c r="V134" t="n">
-        <v>0.3753783702850342</v>
+        <v>0.8622387051582336</v>
       </c>
       <c r="W134" t="n">
-        <v>0.256645143032074</v>
+        <v>0.0003897164424415678</v>
       </c>
     </row>
     <row r="135" spans="1:23">
@@ -10013,10 +10013,10 @@
         <v>0.8689720630645752</v>
       </c>
       <c r="V135" t="n">
-        <v>0.5041899085044861</v>
+        <v>0.5158538818359375</v>
       </c>
       <c r="W135" t="n">
-        <v>0.1330660134553909</v>
+        <v>0.1246924474835396</v>
       </c>
     </row>
     <row r="136" spans="1:23">
@@ -10084,10 +10084,10 @@
         <v>0.8602099418640137</v>
       </c>
       <c r="V136" t="n">
-        <v>0.8059033155441284</v>
+        <v>0.868708074092865</v>
       </c>
       <c r="W136" t="n">
-        <v>0.002949209650978446</v>
+        <v>7.221825217129663e-05</v>
       </c>
     </row>
     <row r="137" spans="1:23">
@@ -10155,10 +10155,10 @@
         <v>0.9167518615722656</v>
       </c>
       <c r="V137" t="n">
-        <v>0.3524310886859894</v>
+        <v>0.8652256727218628</v>
       </c>
       <c r="W137" t="n">
-        <v>0.3184579610824585</v>
+        <v>0.002654948038980365</v>
       </c>
     </row>
     <row r="138" spans="1:23">
@@ -10226,10 +10226,10 @@
         <v>0.8670730590820312</v>
       </c>
       <c r="V138" t="n">
-        <v>0.5137524604797363</v>
+        <v>0.8988939523696899</v>
       </c>
       <c r="W138" t="n">
-        <v>0.1248354464769363</v>
+        <v>0.001012569293379784</v>
       </c>
     </row>
     <row r="139" spans="1:23">
@@ -10297,10 +10297,10 @@
         <v>0.898280143737793</v>
       </c>
       <c r="V139" t="n">
-        <v>0.6548517942428589</v>
+        <v>0.4906826019287109</v>
       </c>
       <c r="W139" t="n">
-        <v>0.05925736203789711</v>
+        <v>0.1661357581615448</v>
       </c>
     </row>
     <row r="140" spans="1:23">
@@ -10368,10 +10368,10 @@
         <v>0.8690590858459473</v>
       </c>
       <c r="V140" t="n">
-        <v>0.5143253803253174</v>
+        <v>0.3972922563552856</v>
       </c>
       <c r="W140" t="n">
-        <v>0.1258359998464584</v>
+        <v>0.2225639373064041</v>
       </c>
     </row>
     <row r="141" spans="1:23">
@@ -10439,10 +10439,10 @@
         <v>0.9196600914001465</v>
       </c>
       <c r="V141" t="n">
-        <v>0.3796856999397278</v>
+        <v>0.499139130115509</v>
       </c>
       <c r="W141" t="n">
-        <v>0.2915723323822021</v>
+        <v>0.1768378764390945</v>
       </c>
     </row>
     <row r="142" spans="1:23">
@@ -10510,10 +10510,10 @@
         <v>0.5304038524627686</v>
       </c>
       <c r="V142" t="n">
-        <v>0.6410635709762573</v>
+        <v>0.5167144536972046</v>
       </c>
       <c r="W142" t="n">
-        <v>0.01224557310342789</v>
+        <v>0.0001873996370704845</v>
       </c>
     </row>
     <row r="143" spans="1:23">
@@ -10581,10 +10581,10 @@
         <v>0.5233049392700195</v>
       </c>
       <c r="V143" t="n">
-        <v>0.5416277647018433</v>
+        <v>0.5399028062820435</v>
       </c>
       <c r="W143" t="n">
-        <v>0.0003357259265612811</v>
+        <v>0.0002754891756922007</v>
       </c>
     </row>
     <row r="144" spans="1:23">
@@ -10652,10 +10652,10 @@
         <v>0.5133450031280518</v>
       </c>
       <c r="V144" t="n">
-        <v>0.5145879983901978</v>
+        <v>0.4037626087665558</v>
       </c>
       <c r="W144" t="n">
-        <v>1.545037207506539e-06</v>
+        <v>0.01200830098241568</v>
       </c>
     </row>
     <row r="145" spans="1:23">
@@ -10723,10 +10723,10 @@
         <v>0.51951003074646</v>
       </c>
       <c r="V145" t="n">
-        <v>0.6722632646560669</v>
+        <v>0.3973021507263184</v>
       </c>
       <c r="W145" t="n">
-        <v>0.02333355136215687</v>
+        <v>0.01493476610630751</v>
       </c>
     </row>
     <row r="146" spans="1:23">
@@ -10794,10 +10794,10 @@
         <v>0.5838971138000488</v>
       </c>
       <c r="V146" t="n">
-        <v>0.6834505796432495</v>
+        <v>0.489623099565506</v>
       </c>
       <c r="W146" t="n">
-        <v>0.009910892695188522</v>
+        <v>0.008887589909136295</v>
       </c>
     </row>
     <row r="147" spans="1:23">
@@ -10865,10 +10865,10 @@
         <v>0.5452451705932617</v>
       </c>
       <c r="V147" t="n">
-        <v>0.3810720145702362</v>
+        <v>0.3993464112281799</v>
       </c>
       <c r="W147" t="n">
-        <v>0.02695282548666</v>
+        <v>0.02128644846379757</v>
       </c>
     </row>
     <row r="148" spans="1:23">
@@ -10936,10 +10936,10 @@
         <v>0.5272109508514404</v>
       </c>
       <c r="V148" t="n">
-        <v>0.3507837355136871</v>
+        <v>0.8676093816757202</v>
       </c>
       <c r="W148" t="n">
-        <v>0.03112656250596046</v>
+        <v>0.1158710941672325</v>
       </c>
     </row>
     <row r="149" spans="1:23">
@@ -11007,10 +11007,10 @@
         <v>0.524381160736084</v>
       </c>
       <c r="V149" t="n">
-        <v>0.6975404024124146</v>
+        <v>0.4218069911003113</v>
       </c>
       <c r="W149" t="n">
-        <v>0.0299841221421957</v>
+        <v>0.01052146032452583</v>
       </c>
     </row>
     <row r="150" spans="1:23">
@@ -11078,10 +11078,10 @@
         <v>0.5232939720153809</v>
       </c>
       <c r="V150" t="n">
-        <v>0.350784033536911</v>
+        <v>0.4232916235923767</v>
       </c>
       <c r="W150" t="n">
-        <v>0.02975967898964882</v>
+        <v>0.01000047009438276</v>
       </c>
     </row>
     <row r="151" spans="1:23">
@@ -11149,10 +11149,10 @@
         <v>0.5598330497741699</v>
       </c>
       <c r="V151" t="n">
-        <v>0.6528611183166504</v>
+        <v>0.8854525685310364</v>
       </c>
       <c r="W151" t="n">
-        <v>0.008654221892356873</v>
+        <v>0.1060280725359917</v>
       </c>
     </row>
     <row r="152" spans="1:23">
@@ -11220,10 +11220,10 @@
         <v>0.5201730728149414</v>
       </c>
       <c r="V152" t="n">
-        <v>0.5344752669334412</v>
+        <v>0.5017750859260559</v>
       </c>
       <c r="W152" t="n">
-        <v>0.0002045527508016676</v>
+        <v>0.0003384859301149845</v>
       </c>
     </row>
     <row r="153" spans="1:23">
@@ -11291,10 +11291,10 @@
         <v>0.5201010704040527</v>
       </c>
       <c r="V153" t="n">
-        <v>0.4035959541797638</v>
+        <v>0.3972703218460083</v>
       </c>
       <c r="W153" t="n">
-        <v>0.01357344165444374</v>
+        <v>0.01508739311248064</v>
       </c>
     </row>
     <row r="154" spans="1:23">
@@ -11362,10 +11362,10 @@
         <v>0.510624885559082</v>
       </c>
       <c r="V154" t="n">
-        <v>0.5140922069549561</v>
+        <v>0.8672952055931091</v>
       </c>
       <c r="W154" t="n">
-        <v>1.202231760544237e-05</v>
+        <v>0.127213716506958</v>
       </c>
     </row>
     <row r="155" spans="1:23">
@@ -11433,10 +11433,10 @@
         <v>0.5118319988250732</v>
       </c>
       <c r="V155" t="n">
-        <v>0.4035847187042236</v>
+        <v>0.8714759945869446</v>
       </c>
       <c r="W155" t="n">
-        <v>0.01171747408807278</v>
+        <v>0.1293438076972961</v>
       </c>
     </row>
     <row r="156" spans="1:23">
@@ -11504,10 +11504,10 @@
         <v>0.5222499370574951</v>
       </c>
       <c r="V156" t="n">
-        <v>0.5145288705825806</v>
+        <v>0.423279345035553</v>
       </c>
       <c r="W156" t="n">
-        <v>5.961486749583855e-05</v>
+        <v>0.009795177727937698</v>
       </c>
     </row>
     <row r="157" spans="1:23">
@@ -11575,10 +11575,10 @@
         <v>0.523853063583374</v>
       </c>
       <c r="V157" t="n">
-        <v>0.4778375327587128</v>
+        <v>0.8947547674179077</v>
       </c>
       <c r="W157" t="n">
-        <v>0.002117429161444306</v>
+        <v>0.1375680714845657</v>
       </c>
     </row>
     <row r="158" spans="1:23">
@@ -11646,10 +11646,10 @@
         <v>0.5236880779266357</v>
       </c>
       <c r="V158" t="n">
-        <v>0.3507875502109528</v>
+        <v>0.4037704765796661</v>
       </c>
       <c r="W158" t="n">
-        <v>0.02989459224045277</v>
+        <v>0.01438023149967194</v>
       </c>
     </row>
     <row r="159" spans="1:23">
@@ -11717,10 +11717,10 @@
         <v>0.5220818519592285</v>
       </c>
       <c r="V159" t="n">
-        <v>0.54131019115448</v>
+        <v>0.8645786046981812</v>
       </c>
       <c r="W159" t="n">
-        <v>0.0003697290376294404</v>
+        <v>0.1173040270805359</v>
       </c>
     </row>
     <row r="160" spans="1:23">
@@ -11788,10 +11788,10 @@
         <v>0.5117719173431396</v>
       </c>
       <c r="V160" t="n">
-        <v>0.5034441351890564</v>
+        <v>0.5406737923622131</v>
       </c>
       <c r="W160" t="n">
-        <v>6.935195415280759e-05</v>
+        <v>0.0008353183511644602</v>
       </c>
     </row>
     <row r="161" spans="1:23">
@@ -11859,10 +11859,10 @@
         <v>0.5250449180603027</v>
       </c>
       <c r="V161" t="n">
-        <v>0.5769187211990356</v>
+        <v>0.4925302267074585</v>
       </c>
       <c r="W161" t="n">
-        <v>0.002690891502425075</v>
+        <v>0.001057205139659345</v>
       </c>
     </row>
     <row r="162" spans="1:23">
@@ -11930,10 +11930,10 @@
         <v>0.452146053314209</v>
       </c>
       <c r="V162" t="n">
-        <v>0.5019052028656006</v>
+        <v>0.4232895970344543</v>
       </c>
       <c r="W162" t="n">
-        <v>0.002475972985848784</v>
+        <v>0.000832695048302412</v>
       </c>
     </row>
     <row r="163" spans="1:23">
@@ -12001,10 +12001,10 @@
         <v>0.3948590755462646</v>
       </c>
       <c r="V163" t="n">
-        <v>0.3711240291595459</v>
+        <v>0.863702118396759</v>
       </c>
       <c r="W163" t="n">
-        <v>0.0005633524269796908</v>
+        <v>0.2198137938976288</v>
       </c>
     </row>
     <row r="164" spans="1:23">
@@ -12072,10 +12072,10 @@
         <v>0.3956458568572998</v>
       </c>
       <c r="V164" t="n">
-        <v>0.4776211678981781</v>
+        <v>0.4022582769393921</v>
       </c>
       <c r="W164" t="n">
-        <v>0.006719951517879963</v>
+        <v>4.3724099668907e-05</v>
       </c>
     </row>
     <row r="165" spans="1:23">
@@ -12143,10 +12143,10 @@
         <v>0.3893918991088867</v>
       </c>
       <c r="V165" t="n">
-        <v>0.5401060581207275</v>
+        <v>0.5477337837219238</v>
       </c>
       <c r="W165" t="n">
-        <v>0.02271475829184055</v>
+        <v>0.02507215179502964</v>
       </c>
     </row>
     <row r="166" spans="1:23">
@@ -12214,10 +12214,10 @@
         <v>0.3954849243164062</v>
       </c>
       <c r="V166" t="n">
-        <v>0.5015835762023926</v>
+        <v>0.5072550773620605</v>
       </c>
       <c r="W166" t="n">
-        <v>0.01125692389905453</v>
+        <v>0.01249256730079651</v>
       </c>
     </row>
     <row r="167" spans="1:23">
@@ -12285,10 +12285,10 @@
         <v>0.3912448883056641</v>
       </c>
       <c r="V167" t="n">
-        <v>0.6429613828659058</v>
+        <v>0.4109151363372803</v>
       </c>
       <c r="W167" t="n">
-        <v>0.06336119025945663</v>
+        <v>0.0003869186621159315</v>
       </c>
     </row>
     <row r="168" spans="1:23">
@@ -12356,10 +12356,10 @@
         <v>0.3842470645904541</v>
       </c>
       <c r="V168" t="n">
-        <v>0.5018356442451477</v>
+        <v>0.8756976127624512</v>
       </c>
       <c r="W168" t="n">
-        <v>0.01382707431912422</v>
+        <v>0.2415236383676529</v>
       </c>
     </row>
     <row r="169" spans="1:23">
@@ -12427,10 +12427,10 @@
         <v>0.3982760906219482</v>
       </c>
       <c r="V169" t="n">
-        <v>0.65655517578125</v>
+        <v>0.8658997416496277</v>
       </c>
       <c r="W169" t="n">
-        <v>0.06670808792114258</v>
+        <v>0.2186718732118607</v>
       </c>
     </row>
     <row r="170" spans="1:23">
@@ -12498,10 +12498,10 @@
         <v>0.389739990234375</v>
       </c>
       <c r="V170" t="n">
-        <v>0.5413097143173218</v>
+        <v>0.39920374751091</v>
       </c>
       <c r="W170" t="n">
-        <v>0.02297338098287582</v>
+        <v>8.956270175985992e-05</v>
       </c>
     </row>
     <row r="171" spans="1:23">
@@ -12569,10 +12569,10 @@
         <v>0.3926849365234375</v>
       </c>
       <c r="V171" t="n">
-        <v>0.5413764715194702</v>
+        <v>0.4225926697254181</v>
       </c>
       <c r="W171" t="n">
-        <v>0.02210917323827744</v>
+        <v>0.0008944725268520415</v>
       </c>
     </row>
     <row r="172" spans="1:23">
@@ -12640,10 +12640,10 @@
         <v>0.408423900604248</v>
       </c>
       <c r="V172" t="n">
-        <v>0.3507823050022125</v>
+        <v>0.4948174655437469</v>
       </c>
       <c r="W172" t="n">
-        <v>0.003322553588077426</v>
+        <v>0.0074638482183218</v>
       </c>
     </row>
     <row r="173" spans="1:23">
@@ -12711,10 +12711,10 @@
         <v>0.3917689323425293</v>
       </c>
       <c r="V173" t="n">
-        <v>0.3812652230262756</v>
+        <v>0.4001840353012085</v>
       </c>
       <c r="W173" t="n">
-        <v>0.0001103279064409435</v>
+        <v>7.081395597197115e-05</v>
       </c>
     </row>
     <row r="174" spans="1:23">
@@ -12782,10 +12782,10 @@
         <v>0.4104421138763428</v>
       </c>
       <c r="V174" t="n">
-        <v>0.6426665782928467</v>
+        <v>0.8707749247550964</v>
       </c>
       <c r="W174" t="n">
-        <v>0.0539282001554966</v>
+        <v>0.211906298995018</v>
       </c>
     </row>
     <row r="175" spans="1:23">
@@ -12853,10 +12853,10 @@
         <v>0.3913750648498535</v>
       </c>
       <c r="V175" t="n">
-        <v>0.9515811204910278</v>
+        <v>0.3972933888435364</v>
       </c>
       <c r="W175" t="n">
-        <v>0.3138308227062225</v>
+        <v>3.50265581801068e-05</v>
       </c>
     </row>
     <row r="176" spans="1:23">
@@ -12924,10 +12924,10 @@
         <v>0.3909420967102051</v>
       </c>
       <c r="V176" t="n">
-        <v>0.4033866226673126</v>
+        <v>0.8660514950752258</v>
       </c>
       <c r="W176" t="n">
-        <v>0.0001548662257846445</v>
+        <v>0.2257289439439774</v>
       </c>
     </row>
     <row r="177" spans="1:23">
@@ -12995,10 +12995,10 @@
         <v>0.4081809520721436</v>
       </c>
       <c r="V177" t="n">
-        <v>0.5413761734962463</v>
+        <v>0.4911856651306152</v>
       </c>
       <c r="W177" t="n">
-        <v>0.01774096675217152</v>
+        <v>0.006889782380312681</v>
       </c>
     </row>
     <row r="178" spans="1:23">
@@ -13066,10 +13066,10 @@
         <v>0.4007999897003174</v>
       </c>
       <c r="V178" t="n">
-        <v>0.5048280954360962</v>
+        <v>0.3972932100296021</v>
       </c>
       <c r="W178" t="n">
-        <v>0.01082184724509716</v>
+        <v>1.22975034173578e-05</v>
       </c>
     </row>
     <row r="179" spans="1:23">
@@ -13137,10 +13137,10 @@
         <v>0.3890790939331055</v>
       </c>
       <c r="V179" t="n">
-        <v>0.3706989288330078</v>
+        <v>0.4967164695262909</v>
       </c>
       <c r="W179" t="n">
-        <v>0.0003378304827492684</v>
+        <v>0.01158580463379622</v>
       </c>
     </row>
     <row r="180" spans="1:23">
@@ -13208,10 +13208,10 @@
         <v>0.3854598999023438</v>
       </c>
       <c r="V180" t="n">
-        <v>0.9478704929351807</v>
+        <v>0.4887459874153137</v>
       </c>
       <c r="W180" t="n">
-        <v>0.3163056671619415</v>
+        <v>0.01066801603883505</v>
       </c>
     </row>
     <row r="181" spans="1:23">
@@ -13279,10 +13279,10 @@
         <v>0.4406321048736572</v>
       </c>
       <c r="V181" t="n">
-        <v>0.9424769878387451</v>
+        <v>0.8758942484855652</v>
       </c>
       <c r="W181" t="n">
-        <v>0.2518482804298401</v>
+        <v>0.1894531399011612</v>
       </c>
     </row>
     <row r="182" spans="1:23">
@@ -13350,10 +13350,10 @@
         <v>0.8876419067382812</v>
       </c>
       <c r="V182" t="n">
-        <v>0.6567997932434082</v>
+        <v>0.8757240176200867</v>
       </c>
       <c r="W182" t="n">
-        <v>0.05328807979822159</v>
+        <v>0.0001420360786141828</v>
       </c>
     </row>
     <row r="183" spans="1:23">
@@ -13421,10 +13421,10 @@
         <v>0.8974142074584961</v>
       </c>
       <c r="V183" t="n">
-        <v>0.3706969916820526</v>
+        <v>0.8736831545829773</v>
       </c>
       <c r="W183" t="n">
-        <v>0.2774309813976288</v>
+        <v>0.0005631628446280956</v>
       </c>
     </row>
     <row r="184" spans="1:23">
@@ -13492,10 +13492,10 @@
         <v>0.8578159809112549</v>
       </c>
       <c r="V184" t="n">
-        <v>0.8036208152770996</v>
+        <v>0.8549135327339172</v>
       </c>
       <c r="W184" t="n">
-        <v>0.002937115961685777</v>
+        <v>8.424205589108169e-06</v>
       </c>
     </row>
     <row r="185" spans="1:23">
@@ -13563,10 +13563,10 @@
         <v>0.9330511093139648</v>
       </c>
       <c r="V185" t="n">
-        <v>0.3753827512264252</v>
+        <v>0.8807149529457092</v>
       </c>
       <c r="W185" t="n">
-        <v>0.3109939694404602</v>
+        <v>0.002739073242992163</v>
       </c>
     </row>
     <row r="186" spans="1:23">
@@ -13634,10 +13634,10 @@
         <v>0.8710827827453613</v>
       </c>
       <c r="V186" t="n">
-        <v>0.7839112281799316</v>
+        <v>0.4003272652626038</v>
       </c>
       <c r="W186" t="n">
-        <v>0.007598879747092724</v>
+        <v>0.2216107547283173</v>
       </c>
     </row>
     <row r="187" spans="1:23">
@@ -13705,10 +13705,10 @@
         <v>0.8778951168060303</v>
       </c>
       <c r="V187" t="n">
-        <v>0.3507856726646423</v>
+        <v>0.4052962064743042</v>
       </c>
       <c r="W187" t="n">
-        <v>0.2778443694114685</v>
+        <v>0.2233497351408005</v>
       </c>
     </row>
     <row r="188" spans="1:23">
@@ -13776,10 +13776,10 @@
         <v>0.8687150478363037</v>
       </c>
       <c r="V188" t="n">
-        <v>0.672245979309082</v>
+        <v>0.4929786324501038</v>
       </c>
       <c r="W188" t="n">
-        <v>0.03860009461641312</v>
+        <v>0.1411778479814529</v>
       </c>
     </row>
     <row r="189" spans="1:23">
@@ -13847,10 +13847,10 @@
         <v>0.927595853805542</v>
       </c>
       <c r="V189" t="n">
-        <v>0.6432181596755981</v>
+        <v>0.3972510397434235</v>
       </c>
       <c r="W189" t="n">
-        <v>0.08087067306041718</v>
+        <v>0.2812656462192535</v>
       </c>
     </row>
     <row r="190" spans="1:23">
@@ -13918,10 +13918,10 @@
         <v>0.8717000484466553</v>
       </c>
       <c r="V190" t="n">
-        <v>0.5039169788360596</v>
+        <v>0.4233595728874207</v>
       </c>
       <c r="W190" t="n">
-        <v>0.1352643817663193</v>
+        <v>0.2010091841220856</v>
       </c>
     </row>
     <row r="191" spans="1:23">
@@ -13989,10 +13989,10 @@
         <v>0.8704040050506592</v>
       </c>
       <c r="V191" t="n">
-        <v>0.4035950005054474</v>
+        <v>0.5157206058502197</v>
       </c>
       <c r="W191" t="n">
-        <v>0.2179106473922729</v>
+        <v>0.1258003115653992</v>
       </c>
     </row>
     <row r="192" spans="1:23">
@@ -14060,10 +14060,10 @@
         <v>0.8678629398345947</v>
       </c>
       <c r="V192" t="n">
-        <v>0.4662267863750458</v>
+        <v>0.8848196864128113</v>
       </c>
       <c r="W192" t="n">
-        <v>0.1613115966320038</v>
+        <v>0.0002875312638934702</v>
       </c>
     </row>
     <row r="193" spans="1:23">
@@ -14131,10 +14131,10 @@
         <v>0.9243161678314209</v>
       </c>
       <c r="V193" t="n">
-        <v>0.8140085935592651</v>
+        <v>0.3972509801387787</v>
       </c>
       <c r="W193" t="n">
-        <v>0.01216776110231876</v>
+        <v>0.277797669172287</v>
       </c>
     </row>
     <row r="194" spans="1:23">
@@ -14202,10 +14202,10 @@
         <v>0.8541500568389893</v>
       </c>
       <c r="V194" t="n">
-        <v>0.5145039558410645</v>
+        <v>0.4050078392028809</v>
       </c>
       <c r="W194" t="n">
-        <v>0.1153594702482224</v>
+        <v>0.2017287313938141</v>
       </c>
     </row>
     <row r="195" spans="1:23">
@@ -14273,10 +14273,10 @@
         <v>0.8472039699554443</v>
       </c>
       <c r="V195" t="n">
-        <v>0.5371123552322388</v>
+        <v>0.8728712201118469</v>
       </c>
       <c r="W195" t="n">
-        <v>0.09615681320428848</v>
+        <v>0.0006588077521882951</v>
       </c>
     </row>
     <row r="196" spans="1:23">
@@ -14344,10 +14344,10 @@
         <v>0.864548921585083</v>
       </c>
       <c r="V196" t="n">
-        <v>0.3507795631885529</v>
+        <v>0.4002189636230469</v>
       </c>
       <c r="W196" t="n">
-        <v>0.2639589905738831</v>
+        <v>0.215602308511734</v>
       </c>
     </row>
     <row r="197" spans="1:23">
@@ -14415,10 +14415,10 @@
         <v>0.9104290008544922</v>
       </c>
       <c r="V197" t="n">
-        <v>0.8158285617828369</v>
+        <v>0.4984674453735352</v>
       </c>
       <c r="W197" t="n">
-        <v>0.00894924346357584</v>
+        <v>0.1697123199701309</v>
       </c>
     </row>
     <row r="198" spans="1:23">
@@ -14486,10 +14486,10 @@
         <v>0.8812351226806641</v>
       </c>
       <c r="V198" t="n">
-        <v>0.4036053717136383</v>
+        <v>0.8998162746429443</v>
       </c>
       <c r="W198" t="n">
-        <v>0.2281301766633987</v>
+        <v>0.0003452592063695192</v>
       </c>
     </row>
     <row r="199" spans="1:23">
@@ -14557,10 +14557,10 @@
         <v>0.8686490058898926</v>
       </c>
       <c r="V199" t="n">
-        <v>0.4032863676548004</v>
+        <v>0.4113889634609222</v>
       </c>
       <c r="W199" t="n">
-        <v>0.2165623903274536</v>
+        <v>0.2090867459774017</v>
       </c>
     </row>
     <row r="200" spans="1:23">
@@ -14628,10 +14628,10 @@
         <v>0.8651061058044434</v>
       </c>
       <c r="V200" t="n">
-        <v>0.9439630508422852</v>
+        <v>0.5406155586242676</v>
       </c>
       <c r="W200" t="n">
-        <v>0.006218418013304472</v>
+        <v>0.1052941158413887</v>
       </c>
     </row>
     <row r="201" spans="1:23">
@@ -14699,10 +14699,10 @@
         <v>0.9043800830841064</v>
       </c>
       <c r="V201" t="n">
-        <v>0.4036560952663422</v>
+        <v>0.5183460712432861</v>
       </c>
       <c r="W201" t="n">
-        <v>0.2507244944572449</v>
+        <v>0.149022251367569</v>
       </c>
     </row>
     <row r="202" spans="1:23">
@@ -14770,10 +14770,10 @@
         <v>0.5277149677276611</v>
       </c>
       <c r="V202" t="n">
-        <v>0.4775792956352234</v>
+        <v>0.411388099193573</v>
       </c>
       <c r="W202" t="n">
-        <v>0.002513585612177849</v>
+        <v>0.01353194005787373</v>
       </c>
     </row>
     <row r="203" spans="1:23">
@@ -14841,10 +14841,10 @@
         <v>0.5076601505279541</v>
       </c>
       <c r="V203" t="n">
-        <v>0.6434158086776733</v>
+        <v>0.4966031908988953</v>
       </c>
       <c r="W203" t="n">
-        <v>0.0184295978397131</v>
+        <v>0.0001222563587361947</v>
       </c>
     </row>
     <row r="204" spans="1:23">
@@ -14912,10 +14912,10 @@
         <v>0.5385959148406982</v>
       </c>
       <c r="V204" t="n">
-        <v>0.5139825344085693</v>
+        <v>0.8765785694122314</v>
       </c>
       <c r="W204" t="n">
-        <v>0.0006058185244910419</v>
+        <v>0.1142322719097137</v>
       </c>
     </row>
     <row r="205" spans="1:23">
@@ -14983,10 +14983,10 @@
         <v>0.5260140895843506</v>
       </c>
       <c r="V205" t="n">
-        <v>0.8119772672653198</v>
+        <v>0.4113917052745819</v>
       </c>
       <c r="W205" t="n">
-        <v>0.08177494257688522</v>
+        <v>0.01313829142600298</v>
       </c>
     </row>
     <row r="206" spans="1:23">
@@ -15054,10 +15054,10 @@
         <v>0.5665910243988037</v>
       </c>
       <c r="V206" t="n">
-        <v>0.4505667388439178</v>
+        <v>0.4049584865570068</v>
       </c>
       <c r="W206" t="n">
-        <v>0.013461634516716</v>
+        <v>0.02612507715821266</v>
       </c>
     </row>
     <row r="207" spans="1:23">
@@ -15125,10 +15125,10 @@
         <v>0.517657995223999</v>
       </c>
       <c r="V207" t="n">
-        <v>0.5373797416687012</v>
+        <v>0.8689996004104614</v>
       </c>
       <c r="W207" t="n">
-        <v>0.0003889472864102572</v>
+        <v>0.1234409213066101</v>
       </c>
     </row>
     <row r="208" spans="1:23">
@@ -15196,10 +15196,10 @@
         <v>0.518867015838623</v>
       </c>
       <c r="V208" t="n">
-        <v>0.5606344938278198</v>
+        <v>0.5158039331436157</v>
       </c>
       <c r="W208" t="n">
-        <v>0.001744522247463465</v>
+        <v>9.382475582242478e-06</v>
       </c>
     </row>
     <row r="209" spans="1:23">
@@ -15267,10 +15267,10 @@
         <v>0.5236029624938965</v>
       </c>
       <c r="V209" t="n">
-        <v>0.5027711391448975</v>
+        <v>0.5155755877494812</v>
       </c>
       <c r="W209" t="n">
-        <v>0.0004339648585300893</v>
+        <v>6.443874735850841e-05</v>
       </c>
     </row>
     <row r="210" spans="1:23">
@@ -15338,10 +15338,10 @@
         <v>0.5124869346618652</v>
       </c>
       <c r="V210" t="n">
-        <v>0.4033709764480591</v>
+        <v>0.5182777643203735</v>
       </c>
       <c r="W210" t="n">
-        <v>0.01190629228949547</v>
+        <v>3.353370993863791e-05</v>
       </c>
     </row>
     <row r="211" spans="1:23">
@@ -15409,10 +15409,10 @@
         <v>0.5741550922393799</v>
       </c>
       <c r="V211" t="n">
-        <v>0.3507762253284454</v>
+        <v>0.4050188660621643</v>
       </c>
       <c r="W211" t="n">
-        <v>0.04989811778068542</v>
+        <v>0.02860706299543381</v>
       </c>
     </row>
     <row r="212" spans="1:23">
@@ -15480,10 +15480,10 @@
         <v>0.5272829532623291</v>
       </c>
       <c r="V212" t="n">
-        <v>0.5342714190483093</v>
+        <v>0.8779093623161316</v>
       </c>
       <c r="W212" t="n">
-        <v>4.883865403826348e-05</v>
+        <v>0.1229388788342476</v>
       </c>
     </row>
     <row r="213" spans="1:23">
@@ -15551,10 +15551,10 @@
         <v>0.525108814239502</v>
       </c>
       <c r="V213" t="n">
-        <v>0.3507807850837708</v>
+        <v>0.499586820602417</v>
       </c>
       <c r="W213" t="n">
-        <v>0.03039026260375977</v>
+        <v>0.0006513721309602261</v>
       </c>
     </row>
     <row r="214" spans="1:23">
@@ -15622,10 +15622,10 @@
         <v>0.5241210460662842</v>
       </c>
       <c r="V214" t="n">
-        <v>0.5043106079101562</v>
+        <v>0.4221514761447906</v>
       </c>
       <c r="W214" t="n">
-        <v>0.0003924534539692104</v>
+        <v>0.01039779279381037</v>
       </c>
     </row>
     <row r="215" spans="1:23">
@@ -15693,10 +15693,10 @@
         <v>0.5155990123748779</v>
       </c>
       <c r="V215" t="n">
-        <v>0.9424210786819458</v>
+        <v>0.8805928230285645</v>
       </c>
       <c r="W215" t="n">
-        <v>0.1821770817041397</v>
+        <v>0.1332204788923264</v>
       </c>
     </row>
     <row r="216" spans="1:23">
@@ -15764,10 +15764,10 @@
         <v>0.5260879993438721</v>
       </c>
       <c r="V216" t="n">
-        <v>0.6413167715072632</v>
+        <v>0.5155836939811707</v>
       </c>
       <c r="W216" t="n">
-        <v>0.01327767036855221</v>
+        <v>0.0001103404283639975</v>
       </c>
     </row>
     <row r="217" spans="1:23">
@@ -15835,10 +15835,10 @@
         <v>0.5229108333587646</v>
       </c>
       <c r="V217" t="n">
-        <v>0.3707364797592163</v>
+        <v>0.3972859978675842</v>
       </c>
       <c r="W217" t="n">
-        <v>0.0231570340692997</v>
+        <v>0.01578160002827644</v>
       </c>
     </row>
     <row r="218" spans="1:23">
@@ -15906,10 +15906,10 @@
         <v>0.5236771106719971</v>
       </c>
       <c r="V218" t="n">
-        <v>0.504324197769165</v>
+        <v>0.8681807518005371</v>
       </c>
       <c r="W218" t="n">
-        <v>0.0003745352441910654</v>
+        <v>0.1186827570199966</v>
       </c>
     </row>
     <row r="219" spans="1:23">
@@ -15977,10 +15977,10 @@
         <v>0.534160852432251</v>
       </c>
       <c r="V219" t="n">
-        <v>0.5155050158500671</v>
+        <v>0.4130672216415405</v>
       </c>
       <c r="W219" t="n">
-        <v>0.0003480402519926429</v>
+        <v>0.01466366741806269</v>
       </c>
     </row>
     <row r="220" spans="1:23">
@@ -16048,10 +16048,10 @@
         <v>0.5615971088409424</v>
       </c>
       <c r="V220" t="n">
-        <v>0.9476672410964966</v>
+        <v>0.8991850018501282</v>
       </c>
       <c r="W220" t="n">
-        <v>0.1490501463413239</v>
+        <v>0.1139655858278275</v>
       </c>
     </row>
     <row r="221" spans="1:23">
@@ -16119,10 +16119,10 @@
         <v>0.5339498519897461</v>
       </c>
       <c r="V221" t="n">
-        <v>0.6720939874649048</v>
+        <v>0.8989070653915405</v>
       </c>
       <c r="W221" t="n">
-        <v>0.01908380165696144</v>
+        <v>0.1331937611103058</v>
       </c>
     </row>
     <row r="222" spans="1:23">
@@ -16190,10 +16190,10 @@
         <v>0.5127260684967041</v>
       </c>
       <c r="V222" t="n">
-        <v>0.4035981297492981</v>
+        <v>0.8803161978721619</v>
       </c>
       <c r="W222" t="n">
-        <v>0.01190890744328499</v>
+        <v>0.1351225078105927</v>
       </c>
     </row>
     <row r="223" spans="1:23">
@@ -16261,10 +16261,10 @@
         <v>0.4981389045715332</v>
       </c>
       <c r="V223" t="n">
-        <v>0.3507724404335022</v>
+        <v>0.4885377287864685</v>
       </c>
       <c r="W223" t="n">
-        <v>0.02171687409281731</v>
+        <v>9.218257764587179e-05</v>
       </c>
     </row>
     <row r="224" spans="1:23">
@@ -16332,10 +16332,10 @@
         <v>0.5041730403900146</v>
       </c>
       <c r="V224" t="n">
-        <v>0.9514546394348145</v>
+        <v>0.8633578419685364</v>
       </c>
       <c r="W224" t="n">
-        <v>0.2000608295202255</v>
+        <v>0.12901371717453</v>
       </c>
     </row>
     <row r="225" spans="1:23">
@@ -16403,10 +16403,10 @@
         <v>0.4970219135284424</v>
       </c>
       <c r="V225" t="n">
-        <v>0.7840772867202759</v>
+        <v>0.8654546141624451</v>
       </c>
       <c r="W225" t="n">
-        <v>0.08240078389644623</v>
+        <v>0.135742649435997</v>
       </c>
     </row>
     <row r="226" spans="1:23">
@@ -16474,10 +16474,10 @@
         <v>0.476809024810791</v>
       </c>
       <c r="V226" t="n">
-        <v>0.7837903499603271</v>
+        <v>0.4054511487483978</v>
       </c>
       <c r="W226" t="n">
-        <v>0.09423753619194031</v>
+        <v>0.005091946572065353</v>
       </c>
     </row>
     <row r="227" spans="1:23">
@@ -16545,10 +16545,10 @@
         <v>0.5442709922790527</v>
       </c>
       <c r="V227" t="n">
-        <v>0.6628100872039795</v>
+        <v>0.8688931465148926</v>
       </c>
       <c r="W227" t="n">
-        <v>0.0140515174716711</v>
+        <v>0.105379544198513</v>
       </c>
     </row>
     <row r="228" spans="1:23">
@@ -16616,10 +16616,10 @@
         <v>0.3988668918609619</v>
       </c>
       <c r="V228" t="n">
-        <v>0.4992532730102539</v>
+        <v>0.3972773253917694</v>
       </c>
       <c r="W228" t="n">
-        <v>0.01007742527872324</v>
+        <v>2.526721573303803e-06</v>
       </c>
     </row>
     <row r="229" spans="1:23">
@@ -16687,10 +16687,10 @@
         <v>0.4218258857727051</v>
       </c>
       <c r="V229" t="n">
-        <v>0.4505327641963959</v>
+        <v>0.4028842449188232</v>
       </c>
       <c r="W229" t="n">
-        <v>0.0008240848546847701</v>
+        <v>0.0003587857645470649</v>
       </c>
     </row>
     <row r="230" spans="1:23">
@@ -16758,10 +16758,10 @@
         <v>0.3961429595947266</v>
       </c>
       <c r="V230" t="n">
-        <v>0.8088934421539307</v>
+        <v>0.3972422480583191</v>
       </c>
       <c r="W230" t="n">
-        <v>0.1703629642724991</v>
+        <v>1.208435151056619e-06</v>
       </c>
     </row>
     <row r="231" spans="1:23">
@@ -16829,10 +16829,10 @@
         <v>0.3879220485687256</v>
       </c>
       <c r="V231" t="n">
-        <v>0.5342543721199036</v>
+        <v>0.4941325485706329</v>
       </c>
       <c r="W231" t="n">
-        <v>0.02141314931213856</v>
+        <v>0.01128067076206207</v>
       </c>
     </row>
     <row r="232" spans="1:23">
@@ -16900,10 +16900,10 @@
         <v>0.3898341655731201</v>
       </c>
       <c r="V232" t="n">
-        <v>0.8084061145782471</v>
+        <v>0.8657740354537964</v>
       </c>
       <c r="W232" t="n">
-        <v>0.1752024739980698</v>
+        <v>0.2265187650918961</v>
       </c>
     </row>
     <row r="233" spans="1:23">
@@ -16971,10 +16971,10 @@
         <v>0.4767980575561523</v>
       </c>
       <c r="V233" t="n">
-        <v>0.3523913621902466</v>
+        <v>0.8714012503623962</v>
       </c>
       <c r="W233" t="n">
-        <v>0.01547702588140965</v>
+        <v>0.1557116806507111</v>
       </c>
     </row>
     <row r="234" spans="1:23">
@@ -17042,10 +17042,10 @@
         <v>0.3968770503997803</v>
       </c>
       <c r="V234" t="n">
-        <v>0.654166579246521</v>
+        <v>0.4038803279399872</v>
       </c>
       <c r="W234" t="n">
-        <v>0.06619790196418762</v>
+        <v>4.904589513898827e-05</v>
       </c>
     </row>
     <row r="235" spans="1:23">
@@ -17113,10 +17113,10 @@
         <v>0.5526659488677979</v>
       </c>
       <c r="V235" t="n">
-        <v>0.6082247495651245</v>
+        <v>0.8699344396591187</v>
       </c>
       <c r="W235" t="n">
-        <v>0.003086780430749059</v>
+        <v>0.1006592959165573</v>
       </c>
     </row>
     <row r="236" spans="1:23">
@@ -17184,10 +17184,10 @@
         <v>0.4154059886932373</v>
       </c>
       <c r="V236" t="n">
-        <v>0.4781670570373535</v>
+        <v>0.4107792973518372</v>
       </c>
       <c r="W236" t="n">
-        <v>0.003938951529562473</v>
+        <v>2.140627293556463e-05</v>
       </c>
     </row>
     <row r="237" spans="1:23">
@@ -17255,10 +17255,10 @@
         <v>0.4641330242156982</v>
       </c>
       <c r="V237" t="n">
-        <v>0.5032491683959961</v>
+        <v>0.8868449926376343</v>
       </c>
       <c r="W237" t="n">
-        <v>0.001530072768218815</v>
+        <v>0.1786854118108749</v>
       </c>
     </row>
     <row r="238" spans="1:23">
@@ -17326,10 +17326,10 @@
         <v>0.3935520648956299</v>
       </c>
       <c r="V238" t="n">
-        <v>0.5138214826583862</v>
+        <v>0.4029619693756104</v>
       </c>
       <c r="W238" t="n">
-        <v>0.01446473319083452</v>
+        <v>8.854630141286179e-05</v>
       </c>
     </row>
     <row r="239" spans="1:23">
@@ -17397,10 +17397,10 @@
         <v>0.4480860233306885</v>
       </c>
       <c r="V239" t="n">
-        <v>0.782903790473938</v>
+        <v>0.4002652764320374</v>
       </c>
       <c r="W239" t="n">
-        <v>0.1121029406785965</v>
+        <v>0.002286823932081461</v>
       </c>
     </row>
     <row r="240" spans="1:23">
@@ -17468,10 +17468,10 @@
         <v>0.3876211643218994</v>
       </c>
       <c r="V240" t="n">
-        <v>0.3756047487258911</v>
+        <v>0.8889070153236389</v>
       </c>
       <c r="W240" t="n">
-        <v>0.0001443942455807701</v>
+        <v>0.2512874901294708</v>
       </c>
     </row>
     <row r="241" spans="1:23">
@@ -17539,10 +17539,10 @@
         <v>0.4005320072174072</v>
       </c>
       <c r="V241" t="n">
-        <v>0.5040719509124756</v>
+        <v>0.4899773001670837</v>
       </c>
       <c r="W241" t="n">
-        <v>0.01072052028030157</v>
+        <v>0.00800046045333147</v>
       </c>
     </row>
     <row r="242" spans="1:23">
@@ -17610,10 +17610,10 @@
         <v>0.8907570838928223</v>
       </c>
       <c r="V242" t="n">
-        <v>0.350454181432724</v>
+        <v>0.8750374317169189</v>
       </c>
       <c r="W242" t="n">
-        <v>0.2919271886348724</v>
+        <v>0.0002471074694767594</v>
       </c>
     </row>
     <row r="243" spans="1:23">
@@ -17681,10 +17681,10 @@
         <v>0.9215109348297119</v>
       </c>
       <c r="V243" t="n">
-        <v>0.5411652326583862</v>
+        <v>0.8807151317596436</v>
       </c>
       <c r="W243" t="n">
-        <v>0.1446628570556641</v>
+        <v>0.001664297538809478</v>
       </c>
     </row>
     <row r="244" spans="1:23">
@@ -17752,10 +17752,10 @@
         <v>0.9344489574432373</v>
       </c>
       <c r="V244" t="n">
-        <v>0.7828766107559204</v>
+        <v>0.5156951546669006</v>
       </c>
       <c r="W244" t="n">
-        <v>0.02297417633235455</v>
+        <v>0.1753547489643097</v>
       </c>
     </row>
     <row r="245" spans="1:23">
@@ -17823,10 +17823,10 @@
         <v>0.8702609539031982</v>
       </c>
       <c r="V245" t="n">
-        <v>0.5885621309280396</v>
+        <v>0.3972815275192261</v>
       </c>
       <c r="W245" t="n">
-        <v>0.07935422658920288</v>
+        <v>0.2237095385789871</v>
       </c>
     </row>
     <row r="246" spans="1:23">
@@ -17894,10 +17894,10 @@
         <v>0.8737151622772217</v>
       </c>
       <c r="V246" t="n">
-        <v>0.5607798099517822</v>
+        <v>0.5158473253250122</v>
       </c>
       <c r="W246" t="n">
-        <v>0.09792853146791458</v>
+        <v>0.1280693858861923</v>
       </c>
     </row>
     <row r="247" spans="1:23">
@@ -17965,10 +17965,10 @@
         <v>0.8750300407409668</v>
       </c>
       <c r="V247" t="n">
-        <v>0.3507875204086304</v>
+        <v>0.5084956884384155</v>
       </c>
       <c r="W247" t="n">
-        <v>0.2748302221298218</v>
+        <v>0.1343474388122559</v>
       </c>
     </row>
     <row r="248" spans="1:23">
@@ -18036,10 +18036,10 @@
         <v>0.87123703956604</v>
       </c>
       <c r="V248" t="n">
-        <v>0.6825319528579712</v>
+        <v>0.4016971290111542</v>
       </c>
       <c r="W248" t="n">
-        <v>0.03560961037874222</v>
+        <v>0.2204677313566208</v>
       </c>
     </row>
     <row r="249" spans="1:23">
@@ -18107,10 +18107,10 @@
         <v>0.8923168182373047</v>
       </c>
       <c r="V249" t="n">
-        <v>0.5416070222854614</v>
+        <v>0.8682230114936829</v>
       </c>
       <c r="W249" t="n">
-        <v>0.1229973584413528</v>
+        <v>0.0005805115215480328</v>
       </c>
     </row>
     <row r="250" spans="1:23">
@@ -18178,10 +18178,10 @@
         <v>0.8733329772949219</v>
       </c>
       <c r="V250" t="n">
-        <v>0.3869305849075317</v>
+        <v>0.5302848219871521</v>
       </c>
       <c r="W250" t="n">
-        <v>0.2365872859954834</v>
+        <v>0.1176820397377014</v>
       </c>
     </row>
     <row r="251" spans="1:23">
@@ -18249,10 +18249,10 @@
         <v>0.8789520263671875</v>
       </c>
       <c r="V251" t="n">
-        <v>0.5413551330566406</v>
+        <v>0.4929112493991852</v>
       </c>
       <c r="W251" t="n">
-        <v>0.1139716655015945</v>
+        <v>0.149027481675148</v>
       </c>
     </row>
     <row r="252" spans="1:23">
@@ -18320,10 +18320,10 @@
         <v>0.8781900405883789</v>
       </c>
       <c r="V252" t="n">
-        <v>0.6824849843978882</v>
+        <v>0.8851883411407471</v>
       </c>
       <c r="W252" t="n">
-        <v>0.03830046951770782</v>
+        <v>4.897620965493843e-05</v>
       </c>
     </row>
     <row r="253" spans="1:23">
@@ -18391,10 +18391,10 @@
         <v>0.8753659725189209</v>
       </c>
       <c r="V253" t="n">
-        <v>0.5344407558441162</v>
+        <v>0.4967259764671326</v>
       </c>
       <c r="W253" t="n">
-        <v>0.1162300035357475</v>
+        <v>0.1433682441711426</v>
       </c>
     </row>
     <row r="254" spans="1:23">
@@ -18462,10 +18462,10 @@
         <v>0.8675529956817627</v>
       </c>
       <c r="V254" t="n">
-        <v>0.6904977560043335</v>
+        <v>0.4066468775272369</v>
       </c>
       <c r="W254" t="n">
-        <v>0.03134855628013611</v>
+        <v>0.2124344557523727</v>
       </c>
     </row>
     <row r="255" spans="1:23">
@@ -18533,10 +18533,10 @@
         <v>0.8903629779815674</v>
       </c>
       <c r="V255" t="n">
-        <v>0.5615758895874023</v>
+        <v>0.4242668449878693</v>
       </c>
       <c r="W255" t="n">
-        <v>0.108100950717926</v>
+        <v>0.2172456085681915</v>
       </c>
     </row>
     <row r="256" spans="1:23">
@@ -18604,10 +18604,10 @@
         <v>0.8723328113555908</v>
       </c>
       <c r="V256" t="n">
-        <v>0.4036880433559418</v>
+        <v>0.8720359802246094</v>
       </c>
       <c r="W256" t="n">
-        <v>0.2196279168128967</v>
+        <v>8.810872031972394e-08</v>
       </c>
     </row>
     <row r="257" spans="1:23">
@@ -18675,10 +18675,10 @@
         <v>0.8755631446838379</v>
       </c>
       <c r="V257" t="n">
-        <v>0.6563405990600586</v>
+        <v>0.4226085543632507</v>
       </c>
       <c r="W257" t="n">
-        <v>0.04805852472782135</v>
+        <v>0.2051678597927094</v>
       </c>
     </row>
     <row r="258" spans="1:23">
@@ -18746,10 +18746,10 @@
         <v>0.8796830177307129</v>
       </c>
       <c r="V258" t="n">
-        <v>0.4036735594272614</v>
+        <v>0.5004346370697021</v>
       </c>
       <c r="W258" t="n">
-        <v>0.2265850007534027</v>
+        <v>0.1438293308019638</v>
       </c>
     </row>
     <row r="259" spans="1:23">
@@ -18817,10 +18817,10 @@
         <v>0.9068310260772705</v>
       </c>
       <c r="V259" t="n">
-        <v>0.4780525863170624</v>
+        <v>0.8919556736946106</v>
       </c>
       <c r="W259" t="n">
-        <v>0.1838509440422058</v>
+        <v>0.0002212761028204113</v>
       </c>
     </row>
     <row r="260" spans="1:23">
@@ -18888,10 +18888,10 @@
         <v>0.8710601329803467</v>
       </c>
       <c r="V260" t="n">
-        <v>0.3503713309764862</v>
+        <v>0.4038778841495514</v>
       </c>
       <c r="W260" t="n">
-        <v>0.2711167931556702</v>
+        <v>0.218259260058403</v>
       </c>
     </row>
     <row r="261" spans="1:23">
@@ -18959,10 +18959,10 @@
         <v>0.8845589160919189</v>
       </c>
       <c r="V261" t="n">
-        <v>0.6446640491485596</v>
+        <v>0.4038453698158264</v>
       </c>
       <c r="W261" t="n">
-        <v>0.05754954740405083</v>
+        <v>0.2310855090618134</v>
       </c>
     </row>
     <row r="262" spans="1:23">
@@ -19030,10 +19030,10 @@
         <v>0.5159790515899658</v>
       </c>
       <c r="V262" t="n">
-        <v>0.6567727327346802</v>
+        <v>0.4050710797309875</v>
       </c>
       <c r="W262" t="n">
-        <v>0.01982286013662815</v>
+        <v>0.01230057794600725</v>
       </c>
     </row>
     <row r="263" spans="1:23">
@@ -19101,10 +19101,10 @@
         <v>0.5493819713592529</v>
       </c>
       <c r="V263" t="n">
-        <v>0.4085472524166107</v>
+        <v>0.4964503645896912</v>
       </c>
       <c r="W263" t="n">
-        <v>0.01983441784977913</v>
+        <v>0.002801754977554083</v>
       </c>
     </row>
     <row r="264" spans="1:23">
@@ -19172,10 +19172,10 @@
         <v>0.5774469375610352</v>
       </c>
       <c r="V264" t="n">
-        <v>0.3753085136413574</v>
+        <v>0.4056052565574646</v>
       </c>
       <c r="W264" t="n">
-        <v>0.04085994139313698</v>
+        <v>0.02952956408262253</v>
       </c>
     </row>
     <row r="265" spans="1:23">
@@ -19243,10 +19243,10 @@
         <v>0.5230410099029541</v>
       </c>
       <c r="V265" t="n">
-        <v>0.6418609619140625</v>
+        <v>0.8598935008049011</v>
       </c>
       <c r="W265" t="n">
-        <v>0.01411818061023951</v>
+        <v>0.1134696006774902</v>
       </c>
     </row>
     <row r="266" spans="1:23">
@@ -19314,10 +19314,10 @@
         <v>0.5269298553466797</v>
       </c>
       <c r="V266" t="n">
-        <v>0.4506978392601013</v>
+        <v>0.8784509897232056</v>
       </c>
       <c r="W266" t="n">
-        <v>0.005811320152133703</v>
+        <v>0.1235671043395996</v>
       </c>
     </row>
     <row r="267" spans="1:23">
@@ -19385,10 +19385,10 @@
         <v>0.5256891250610352</v>
       </c>
       <c r="V267" t="n">
-        <v>0.5137119293212891</v>
+        <v>0.500985324382782</v>
       </c>
       <c r="W267" t="n">
-        <v>0.0001434532168786973</v>
+        <v>0.0006102777551859617</v>
       </c>
     </row>
     <row r="268" spans="1:23">
@@ -19456,10 +19456,10 @@
         <v>0.5385298728942871</v>
       </c>
       <c r="V268" t="n">
-        <v>0.8078914880752563</v>
+        <v>0.496868371963501</v>
       </c>
       <c r="W268" t="n">
-        <v>0.07255567610263824</v>
+        <v>0.001735680620186031</v>
       </c>
     </row>
     <row r="269" spans="1:23">
@@ -19527,10 +19527,10 @@
         <v>0.5855391025543213</v>
       </c>
       <c r="V269" t="n">
-        <v>0.4033569991588593</v>
+        <v>0.4958091080188751</v>
       </c>
       <c r="W269" t="n">
-        <v>0.03319031745195389</v>
+        <v>0.008051471784710884</v>
       </c>
     </row>
     <row r="270" spans="1:23">
@@ -19598,10 +19598,10 @@
         <v>0.5242531299591064</v>
       </c>
       <c r="V270" t="n">
-        <v>0.466268926858902</v>
+        <v>0.504572868347168</v>
       </c>
       <c r="W270" t="n">
-        <v>0.003362167859449983</v>
+        <v>0.0003873126988764852</v>
       </c>
     </row>
     <row r="271" spans="1:23">
@@ -19669,10 +19669,10 @@
         <v>0.5193619728088379</v>
       </c>
       <c r="V271" t="n">
-        <v>0.5041878223419189</v>
+        <v>0.4878531694412231</v>
       </c>
       <c r="W271" t="n">
-        <v>0.0002302548382431269</v>
+        <v>0.0009928046492859721</v>
       </c>
     </row>
     <row r="272" spans="1:23">
@@ -19740,10 +19740,10 @@
         <v>0.5350341796875</v>
       </c>
       <c r="V272" t="n">
-        <v>0.4036241471767426</v>
+        <v>0.4973334670066833</v>
       </c>
       <c r="W272" t="n">
-        <v>0.01726859621703625</v>
+        <v>0.001421343768015504</v>
       </c>
     </row>
     <row r="273" spans="1:23">
@@ -19811,10 +19811,10 @@
         <v>0.5204010009765625</v>
       </c>
       <c r="V273" t="n">
-        <v>0.4484035670757294</v>
+        <v>0.4053609073162079</v>
       </c>
       <c r="W273" t="n">
-        <v>0.005183630622923374</v>
+        <v>0.01323422323912382</v>
       </c>
     </row>
     <row r="274" spans="1:23">
@@ -19882,10 +19882,10 @@
         <v>0.5391111373901367</v>
       </c>
       <c r="V274" t="n">
-        <v>0.7829432487487793</v>
+        <v>0.8757489323616028</v>
       </c>
       <c r="W274" t="n">
-        <v>0.05945409834384918</v>
+        <v>0.1133250072598457</v>
       </c>
     </row>
     <row r="275" spans="1:23">
@@ -19953,10 +19953,10 @@
         <v>0.5268139839172363</v>
       </c>
       <c r="V275" t="n">
-        <v>0.3502950370311737</v>
+        <v>0.5269327163696289</v>
       </c>
       <c r="W275" t="n">
-        <v>0.0311589390039444</v>
+        <v>1.409739525115583e-08</v>
       </c>
     </row>
     <row r="276" spans="1:23">
@@ -20024,10 +20024,10 @@
         <v>0.5247821807861328</v>
       </c>
       <c r="V276" t="n">
-        <v>0.6002374887466431</v>
+        <v>0.3972677886486053</v>
       </c>
       <c r="W276" t="n">
-        <v>0.005693503655493259</v>
+        <v>0.01625991985201836</v>
       </c>
     </row>
     <row r="277" spans="1:23">
@@ -20095,10 +20095,10 @@
         <v>0.5290441513061523</v>
       </c>
       <c r="V277" t="n">
-        <v>0.9461758136749268</v>
+        <v>0.3973036408424377</v>
       </c>
       <c r="W277" t="n">
-        <v>0.1739988178014755</v>
+        <v>0.01735556125640869</v>
       </c>
     </row>
     <row r="278" spans="1:23">
@@ -20166,10 +20166,10 @@
         <v>0.5167069435119629</v>
       </c>
       <c r="V278" t="n">
-        <v>0.6549818515777588</v>
+        <v>0.508287787437439</v>
       </c>
       <c r="W278" t="n">
-        <v>0.01911995001137257</v>
+        <v>7.088218990247697e-05</v>
       </c>
     </row>
     <row r="279" spans="1:23">
@@ -20237,10 +20237,10 @@
         <v>0.52783203125</v>
       </c>
       <c r="V279" t="n">
-        <v>0.5038816928863525</v>
+        <v>0.4888699948787689</v>
       </c>
       <c r="W279" t="n">
-        <v>0.0005736186867579818</v>
+        <v>0.001518040313385427</v>
       </c>
     </row>
     <row r="280" spans="1:23">
@@ -20308,10 +20308,10 @@
         <v>0.5797691345214844</v>
       </c>
       <c r="V280" t="n">
-        <v>0.6548995971679688</v>
+        <v>0.4176998436450958</v>
       </c>
       <c r="W280" t="n">
-        <v>0.005644586402922869</v>
+        <v>0.02626645565032959</v>
       </c>
     </row>
     <row r="281" spans="1:23">
@@ -20379,10 +20379,10 @@
         <v>0.5262019634246826</v>
       </c>
       <c r="V281" t="n">
-        <v>0.5413910150527954</v>
+        <v>0.8780888915061951</v>
       </c>
       <c r="W281" t="n">
-        <v>0.0002307072863914073</v>
+        <v>0.1238244101405144</v>
       </c>
     </row>
     <row r="282" spans="1:23">
@@ -20450,10 +20450,10 @@
         <v>0.4189000129699707</v>
       </c>
       <c r="V282" t="n">
-        <v>0.5298932790756226</v>
+        <v>0.4223933219909668</v>
       </c>
       <c r="W282" t="n">
-        <v>0.01231950521469116</v>
+        <v>1.220320791617269e-05</v>
       </c>
     </row>
     <row r="283" spans="1:23">
@@ -20521,10 +20521,10 @@
         <v>0.4142658710479736</v>
       </c>
       <c r="V283" t="n">
-        <v>0.5887578725814819</v>
+        <v>0.8680980801582336</v>
       </c>
       <c r="W283" t="n">
-        <v>0.0304474588483572</v>
+        <v>0.205963671207428</v>
       </c>
     </row>
     <row r="284" spans="1:23">
@@ -20592,10 +20592,10 @@
         <v>0.403770923614502</v>
       </c>
       <c r="V284" t="n">
-        <v>0.541418194770813</v>
+        <v>0.4215045571327209</v>
       </c>
       <c r="W284" t="n">
-        <v>0.01894677057862282</v>
+        <v>0.0003144817601423711</v>
       </c>
     </row>
     <row r="285" spans="1:23">
@@ -20663,10 +20663,10 @@
         <v>0.4019989967346191</v>
       </c>
       <c r="V285" t="n">
-        <v>0.5140033960342407</v>
+        <v>0.4985517263412476</v>
       </c>
       <c r="W285" t="n">
-        <v>0.01254498586058617</v>
+        <v>0.00932243000715971</v>
       </c>
     </row>
     <row r="286" spans="1:23">
@@ -20734,10 +20734,10 @@
         <v>0.4558260440826416</v>
       </c>
       <c r="V286" t="n">
-        <v>0.4484788775444031</v>
+        <v>0.872718870639801</v>
       </c>
       <c r="W286" t="n">
-        <v>5.398085704655387e-05</v>
+        <v>0.1737996339797974</v>
       </c>
     </row>
     <row r="287" spans="1:23">
@@ -20805,10 +20805,10 @@
         <v>0.3996250629425049</v>
       </c>
       <c r="V287" t="n">
-        <v>0.4036531448364258</v>
+        <v>0.523079514503479</v>
       </c>
       <c r="W287" t="n">
-        <v>1.622544368728995e-05</v>
+        <v>0.01524100173264742</v>
       </c>
     </row>
     <row r="288" spans="1:23">
@@ -20876,10 +20876,10 @@
         <v>0.4017519950866699</v>
       </c>
       <c r="V288" t="n">
-        <v>0.7832762002944946</v>
+        <v>0.5151314735412598</v>
       </c>
       <c r="W288" t="n">
-        <v>0.1455607265233994</v>
+        <v>0.01285490579903126</v>
       </c>
     </row>
     <row r="289" spans="1:23">
@@ -20947,10 +20947,10 @@
         <v>0.4000520706176758</v>
       </c>
       <c r="V289" t="n">
-        <v>0.5605940818786621</v>
+        <v>0.8694491386413574</v>
       </c>
       <c r="W289" t="n">
-        <v>0.02577373757958412</v>
+        <v>0.220333606004715</v>
       </c>
     </row>
     <row r="290" spans="1:23">
@@ -21018,10 +21018,10 @@
         <v>0.3912990093231201</v>
       </c>
       <c r="V290" t="n">
-        <v>0.4035888314247131</v>
+        <v>0.4921900928020477</v>
       </c>
       <c r="W290" t="n">
-        <v>0.0001510397269157693</v>
+        <v>0.01017901115119457</v>
       </c>
     </row>
     <row r="291" spans="1:23">
@@ -21089,10 +21089,10 @@
         <v>0.3927931785583496</v>
       </c>
       <c r="V291" t="n">
-        <v>0.7831968069076538</v>
+        <v>0.8660951852798462</v>
       </c>
       <c r="W291" t="n">
-        <v>0.1524149924516678</v>
+        <v>0.2240147888660431</v>
       </c>
     </row>
     <row r="292" spans="1:23">
@@ -21160,10 +21160,10 @@
         <v>0.4574050903320312</v>
       </c>
       <c r="V292" t="n">
-        <v>0.3507879376411438</v>
+        <v>0.403669536113739</v>
       </c>
       <c r="W292" t="n">
-        <v>0.01136721763759851</v>
+        <v>0.002887509763240814</v>
       </c>
     </row>
     <row r="293" spans="1:23">
@@ -21231,10 +21231,10 @@
         <v>0.4018609523773193</v>
       </c>
       <c r="V293" t="n">
-        <v>0.3757709860801697</v>
+        <v>0.8672541379928589</v>
       </c>
       <c r="W293" t="n">
-        <v>0.000680686323903501</v>
+        <v>0.2165908217430115</v>
       </c>
     </row>
     <row r="294" spans="1:23">
@@ -21302,10 +21302,10 @@
         <v>0.3922829627990723</v>
       </c>
       <c r="V294" t="n">
-        <v>0.4506654441356659</v>
+        <v>0.3972748816013336</v>
       </c>
       <c r="W294" t="n">
-        <v>0.003408514196053147</v>
+        <v>2.491925260983407e-05</v>
       </c>
     </row>
     <row r="295" spans="1:23">
@@ -21373,10 +21373,10 @@
         <v>0.4058198928833008</v>
       </c>
       <c r="V295" t="n">
-        <v>0.5138216018676758</v>
+        <v>0.4992572069168091</v>
       </c>
       <c r="W295" t="n">
-        <v>0.01166436914354563</v>
+        <v>0.008730531670153141</v>
       </c>
     </row>
     <row r="296" spans="1:23">
@@ -21444,10 +21444,10 @@
         <v>0.4023680686950684</v>
       </c>
       <c r="V296" t="n">
-        <v>0.4662189185619354</v>
+        <v>0.8676382303237915</v>
       </c>
       <c r="W296" t="n">
-        <v>0.004076931159943342</v>
+        <v>0.2164763212203979</v>
       </c>
     </row>
     <row r="297" spans="1:23">
@@ -21515,10 +21515,10 @@
         <v>0.4331111907958984</v>
       </c>
       <c r="V297" t="n">
-        <v>0.9441746473312378</v>
+        <v>0.8692117929458618</v>
       </c>
       <c r="W297" t="n">
-        <v>0.2611858546733856</v>
+        <v>0.1901837289333344</v>
       </c>
     </row>
     <row r="298" spans="1:23">
@@ -21586,10 +21586,10 @@
         <v>0.4511008262634277</v>
       </c>
       <c r="V298" t="n">
-        <v>0.7837048768997192</v>
+        <v>0.404880702495575</v>
       </c>
       <c r="W298" t="n">
-        <v>0.1106254532933235</v>
+        <v>0.002136299852281809</v>
       </c>
     </row>
     <row r="299" spans="1:23">
@@ -21657,10 +21657,10 @@
         <v>0.4044609069824219</v>
       </c>
       <c r="V299" t="n">
-        <v>0.5028307437896729</v>
+        <v>0.8623666167259216</v>
       </c>
       <c r="W299" t="n">
-        <v>0.009676625020802021</v>
+        <v>0.2096776366233826</v>
       </c>
     </row>
     <row r="300" spans="1:23">
@@ -21728,10 +21728,10 @@
         <v>0.3995659351348877</v>
       </c>
       <c r="V300" t="n">
-        <v>0.7834850549697876</v>
+        <v>0.4930315613746643</v>
       </c>
       <c r="W300" t="n">
-        <v>0.1473938971757889</v>
+        <v>0.008735823445022106</v>
       </c>
     </row>
     <row r="301" spans="1:23">
@@ -21799,10 +21799,10 @@
         <v>0.39894700050354</v>
       </c>
       <c r="V301" t="n">
-        <v>0.514474630355835</v>
+        <v>0.5062222480773926</v>
       </c>
       <c r="W301" t="n">
-        <v>0.01334663294255733</v>
+        <v>0.01150797866284847</v>
       </c>
     </row>
     <row r="302" spans="1:23">
